--- a/Excel_profile_templates/Profile Template - CC Encounter.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Encounter.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -94,7 +94,7 @@
   </si>
   <si>
     <t>Language of the resource content
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- text</t>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>usual : official : temp : secondary (If known)
-Binding (required): Identifies the purpose for this identifier, if known . ( http://hl7.org/fhir/stu3/valueset-identifier-use.html )</t>
+Binding (required): Identifies the purpose for this identifier, if known. [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
   </si>
   <si>
     <t>- - type</t>
@@ -176,7 +176,7 @@
   </si>
   <si>
     <t>Description of identifier
-Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. ( http://hl7.org/fhir/stu3/valueset-identifier-type.html )</t>
+Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. [Identifier Type Codes](http://hl7.org/fhir/stu3/valueset-identifier-type.html)</t>
   </si>
   <si>
     <t>- - - coding</t>
@@ -299,7 +299,7 @@
   </si>
   <si>
     <t>planned : arrived : triaged : in-progress : onleave : finished : cancelled +
-Binding (required): Current state of the encounter ( http://hl7.org/fhir/stu3/valueset-encounter-status.html )</t>
+Binding (required): Current state of the encounter [EncounterStatus](http://hl7.org/fhir/stu3/valueset-encounter-status.html)</t>
   </si>
   <si>
     <t>- statusHistory</t>
@@ -329,7 +329,7 @@
   </si>
   <si>
     <t>Classification of the encounter
-Binding (extensible): Classification of the encounter ( http://hl7.org/fhir/stu3/v3/ActEncounterCode/vs.html )</t>
+Binding (extensible): Classification of the encounter [ActEncounterCode](http://hl7.org/fhir/stu3/v3/ActEncounterCode/vs.html)</t>
   </si>
   <si>
     <t>- - version</t>
@@ -373,7 +373,7 @@
   </si>
   <si>
     <t>Specific type of encounter
-Binding (example): The type of encounter ( http://hl7.org/fhir/stu3/valueset-encounter-type.html )</t>
+Binding (example): The type of encounter [EncounterType](http://hl7.org/fhir/stu3/valueset-encounter-type.html)</t>
   </si>
   <si>
     <t>- - coding</t>
@@ -387,7 +387,7 @@
   </si>
   <si>
     <t>Code defined by a terminology system
-Binding (extensible): A code from the SNOMED Clinical Terminology UK coding system that describes an encounter between a care professional and the patient (or patient's record). (https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-EncounterType-1 )</t>
+Binding (extensible): A code from the SNOMED Clinical Terminology UK coding system that describes an encounter between a care professional and the patient (or patient's record). [CareConnect-EncounterType-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-EncounterType-1)</t>
   </si>
   <si>
     <t>- - - extension (snomedCTDescriptionID)</t>
@@ -399,7 +399,7 @@
   </si>
   <si>
     <t>Identity of the terminology system
-Fixed Value: http://snomed.info/sct</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'http://snomed.info/sct'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- - text</t>
@@ -409,7 +409,7 @@
   </si>
   <si>
     <t>Indicates the urgency of the encounter
-Binding (example): Indicates the urgency of the encounter. ( http://hl7.org/fhir/stu3/v3/ActPriority/vs.html )</t>
+Binding (example): Indicates the urgency of the encounter. [v3 Code System ActPriority](http://hl7.org/fhir/stu3/v3/ActPriority/vs.html)</t>
   </si>
   <si>
     <t>- subject</t>
@@ -446,7 +446,7 @@
   </si>
   <si>
     <t>Role of participant in encounter
-Binding (extensible): Role of participant in encounter ( http://hl7.org/fhir/stu3/valueset-encounter-participant-type.html )</t>
+Binding (extensible): Role of participant in encounter [ParticipantType](http://hl7.org/fhir/stu3/valueset-encounter-participant-type.html)</t>
   </si>
   <si>
     <t>Period of time during the encounter that the participant participated
@@ -501,7 +501,7 @@
   </si>
   <si>
     <t>&lt; : &lt;= : &gt;= : &gt; - how to understand the value
-Binding (required): How the Quantity should be understood and represented. (http://hl7.org/fhir/stu3/valueset-quantity-comparator.html )</t>
+Binding (required): How the Quantity should be understood and represented. [QuantityComparator](http://hl7.org/fhir/stu3/valueset-quantity-comparator.html)</t>
   </si>
   <si>
     <t>- - unit</t>
@@ -520,7 +520,7 @@
   </si>
   <si>
     <t>Reason the encounter takes place (code)
-Binding (preferred): Reason why the encounter takes place. ( http://hl7.org/fhir/stu3/valueset-encounter-reason.html )</t>
+Binding (preferred): Reason why the encounter takes place. [Encounter Reason Codes](http://hl7.org/fhir/stu3/valueset-encounter-reason.html)</t>
   </si>
   <si>
     <t>- diagnosis</t>
@@ -540,7 +540,7 @@
   </si>
   <si>
     <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …)
-Binding (preferred): The type of diagnosis this condition represents ( http://hl7.org/fhir/stu3/valueset-diagnosis-role.html )</t>
+Binding (preferred): The type of diagnosis this condition represents [DiagnosisRole](http://hl7.org/fhir/stu3/valueset-diagnosis-role.html)</t>
   </si>
   <si>
     <t>- - rank</t>
@@ -590,6 +590,10 @@
     <t>- - - use</t>
   </si>
   <si>
+    <t>usual : official : temp : secondary (If known)
+Binding (required): Identifies the purpose for this identifier, if known . [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
+  </si>
+  <si>
     <t>- - - type</t>
   </si>
   <si>
@@ -646,14 +650,14 @@
   </si>
   <si>
     <t>From where patient was admitted (physician referral, transfer)
-Binding (preferred): The source of admission to a Hospital Provider Spell or a Nursing Episode when the Patient is in a Hospital Site or a Care Home. ( https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-SourceOfAdmission-1 )</t>
+Binding (preferred): The source of admission to a Hospital Provider Spell or a Nursing Episode when the Patient is in a Hospital Site or a Care Home. [CareConnect-SourceOfAdmission-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-SourceOfAdmission-1)</t>
   </si>
   <si>
     <t>- - reAdmission</t>
   </si>
   <si>
     <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission
-Binding (example): The reason for re-admission of this hospitalization encounter. (http://hl7.org/fhir/ValueSet/v2-0092 )</t>
+Binding (example): The reason for re-admission of this hospitalization encounter. [v2 Re-Admission Indicator](http://hl7.org/fhir/ValueSet/v2-0092)</t>
   </si>
   <si>
     <t>- - - coding (snomedCT)</t>
@@ -666,21 +670,21 @@
   </si>
   <si>
     <t>Diet preferences reported by the patient
-Binding (extensible): Medical, cultural or ethical food preferences to help with catering requirements. (http://hl7.org/fhir/stu3/valueset-encounter-diet.html )</t>
+Binding (extensible): Medical, cultural or ethical food preferences to help with catering requirements. [Diet](http://hl7.org/fhir/stu3/valueset-encounter-diet.html)</t>
   </si>
   <si>
     <t>- - specialCourtesy</t>
   </si>
   <si>
     <t>Special courtesies (VIP, board member)
-Binding (preferred): Special courtesies ( http://hl7.org/fhir/stu3/valueset-encounter-special-courtesy.html )</t>
+Binding (preferred): Special courtesies [SpecialCourtesy](http://hl7.org/fhir/stu3/valueset-encounter-special-courtesy.html)</t>
   </si>
   <si>
     <t>- - specialArrangement</t>
   </si>
   <si>
     <t>Wheelchair, translator, stretcher, etc.
-Binding (preferred): Special arrangements ( http://hl7.org/fhir/stu3/valueset-encounter-special-arrangements.html )</t>
+Binding (preferred): Special arrangements [SpecialArrangements](http://hl7.org/fhir/stu3/valueset-encounter-special-arrangements.html)</t>
   </si>
   <si>
     <t>- - destination</t>
@@ -694,7 +698,7 @@
   </si>
   <si>
     <t>Category or kind of location after discharge
-Binding (example): The destination of a Patient on completion of a Hospital Provider Spell, or a note that the Patient died or was a still birth. ( https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-DischargeDestination-1 )</t>
+Binding (example): The destination of a Patient on completion of a Hospital Provider Spell, or a note that the Patient died or was a still birth. [CareConnect-DischargeDestination-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-DischargeDestination-1)</t>
   </si>
   <si>
     <t>- location</t>
@@ -711,7 +715,7 @@
   </si>
   <si>
     <t>planned : active : reserved : completed
-Binding (required): The status of the location. ( http://hl7.org/fhir/stu3/valueset-encounter-location-status.html )</t>
+Binding (required): The status of the location. [EncounterLocationStatus](http://hl7.org/fhir/stu3/valueset-encounter-location-status.html)</t>
   </si>
   <si>
     <t>Time period during which the patient was present at the location
@@ -736,7 +740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -784,10 +788,9 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="8.0"/>
       <color rgb="FF474747"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
@@ -806,10 +809,6 @@
       <sz val="8.0"/>
       <color rgb="FF005EB8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -832,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -870,7 +869,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -880,9 +879,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1160,7 +1156,7 @@
       <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1598,7 +1594,7 @@
       <c r="D40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1734,7 +1730,7 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1887,7 +1883,7 @@
       <c r="D57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1921,7 +1917,7 @@
       <c r="D59" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2058,7 +2054,7 @@
       <c r="D67" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2483,7 +2479,7 @@
       <c r="D93" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2997,7 +2993,7 @@
       <c r="D124" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3295,7 +3291,7 @@
       <c r="D142" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E142" s="12" t="s">
+      <c r="E142" s="8" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3617,12 +3613,12 @@
         <v>24</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>14</v>
@@ -3633,13 +3629,13 @@
       <c r="D162" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E162" s="12" t="s">
+      <c r="E162" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>30</v>
@@ -3656,7 +3652,7 @@
     </row>
     <row r="164">
       <c r="A164" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>14</v>
@@ -3673,7 +3669,7 @@
     </row>
     <row r="165">
       <c r="A165" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>14</v>
@@ -3690,7 +3686,7 @@
     </row>
     <row r="166">
       <c r="A166" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>14</v>
@@ -3707,7 +3703,7 @@
     </row>
     <row r="167">
       <c r="A167" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>14</v>
@@ -3724,7 +3720,7 @@
     </row>
     <row r="168">
       <c r="A168" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>14</v>
@@ -3741,7 +3737,7 @@
     </row>
     <row r="169">
       <c r="A169" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>14</v>
@@ -3775,7 +3771,7 @@
     </row>
     <row r="171">
       <c r="A171" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>68</v>
@@ -3792,7 +3788,7 @@
     </row>
     <row r="172">
       <c r="A172" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>14</v>
@@ -3809,7 +3805,7 @@
     </row>
     <row r="173">
       <c r="A173" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>14</v>
@@ -3826,7 +3822,7 @@
     </row>
     <row r="174">
       <c r="A174" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>14</v>
@@ -3843,7 +3839,7 @@
     </row>
     <row r="175">
       <c r="A175" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>14</v>
@@ -3873,7 +3869,7 @@
     </row>
     <row r="177">
       <c r="A177" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>14</v>
@@ -3890,7 +3886,7 @@
     </row>
     <row r="178">
       <c r="A178" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>14</v>
@@ -3924,7 +3920,7 @@
     </row>
     <row r="180">
       <c r="A180" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>14</v>
@@ -3937,7 +3933,7 @@
         <v>Reference</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181">
@@ -4005,7 +4001,7 @@
     </row>
     <row r="185">
       <c r="A185" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>14</v>
@@ -4016,8 +4012,8 @@
       <c r="D185" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E185" s="12" t="s">
-        <v>194</v>
+      <c r="E185" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="186">
@@ -4141,7 +4137,7 @@
     </row>
     <row r="193">
       <c r="A193" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>14</v>
@@ -4152,8 +4148,8 @@
       <c r="D193" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E193" s="12" t="s">
-        <v>196</v>
+      <c r="E193" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="194">
@@ -4175,7 +4171,7 @@
     </row>
     <row r="195">
       <c r="A195" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>14</v>
@@ -4192,7 +4188,7 @@
     </row>
     <row r="196">
       <c r="A196" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>14</v>
@@ -4312,7 +4308,7 @@
     </row>
     <row r="203">
       <c r="A203" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>30</v>
@@ -4323,8 +4319,8 @@
       <c r="D203" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E203" s="12" t="s">
-        <v>200</v>
+      <c r="E203" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="204">
@@ -4448,7 +4444,7 @@
     </row>
     <row r="211">
       <c r="A211" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>30</v>
@@ -4459,8 +4455,8 @@
       <c r="D211" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E211" s="12" t="s">
-        <v>202</v>
+      <c r="E211" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="212">
@@ -4584,7 +4580,7 @@
     </row>
     <row r="219">
       <c r="A219" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>30</v>
@@ -4595,8 +4591,8 @@
       <c r="D219" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E219" s="12" t="s">
-        <v>204</v>
+      <c r="E219" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="220">
@@ -4720,7 +4716,7 @@
     </row>
     <row r="227">
       <c r="A227" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>14</v>
@@ -4733,7 +4729,7 @@
         <v>Reference</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228">
@@ -4801,7 +4797,7 @@
     </row>
     <row r="232">
       <c r="A232" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>14</v>
@@ -4812,8 +4808,8 @@
       <c r="D232" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E232" s="12" t="s">
-        <v>208</v>
+      <c r="E232" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="233">
@@ -4937,7 +4933,7 @@
     </row>
     <row r="240">
       <c r="A240" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>30</v>
@@ -4949,7 +4945,7 @@
         <v>91</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="241">
@@ -4971,7 +4967,7 @@
     </row>
     <row r="242">
       <c r="A242" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>68</v>
@@ -4984,7 +4980,7 @@
         <v>Reference</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="243">
@@ -5064,7 +5060,7 @@
         <v>24</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="248">
@@ -5081,7 +5077,7 @@
         <v>73</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="249">
@@ -5120,7 +5116,7 @@
     </row>
     <row r="251">
       <c r="A251" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>14</v>
@@ -5133,7 +5129,7 @@
         <v>Reference</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="252">
@@ -5201,7 +5197,7 @@
     </row>
     <row r="256">
       <c r="A256" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>14</v>
@@ -5214,7 +5210,7 @@
         <v>Reference</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="257">
@@ -5264,2287 +5260,2301 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="16"/>
+      <c r="A260" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" s="17"/>
+      <c r="A261" s="16"/>
     </row>
     <row r="262">
-      <c r="A262" s="17"/>
+      <c r="A262" s="16"/>
     </row>
     <row r="263">
-      <c r="A263" s="17"/>
+      <c r="A263" s="16"/>
     </row>
     <row r="264">
-      <c r="A264" s="17"/>
+      <c r="A264" s="16"/>
     </row>
     <row r="265">
-      <c r="A265" s="17"/>
+      <c r="A265" s="16"/>
     </row>
     <row r="266">
-      <c r="A266" s="17"/>
+      <c r="A266" s="16"/>
     </row>
     <row r="267">
-      <c r="A267" s="17"/>
+      <c r="A267" s="16"/>
     </row>
     <row r="268">
-      <c r="A268" s="17"/>
+      <c r="A268" s="16"/>
     </row>
     <row r="269">
-      <c r="A269" s="17"/>
+      <c r="A269" s="16"/>
     </row>
     <row r="270">
-      <c r="A270" s="17"/>
+      <c r="A270" s="16"/>
     </row>
     <row r="271">
-      <c r="A271" s="17"/>
+      <c r="A271" s="16"/>
     </row>
     <row r="272">
-      <c r="A272" s="17"/>
+      <c r="A272" s="16"/>
     </row>
     <row r="273">
-      <c r="A273" s="17"/>
+      <c r="A273" s="16"/>
     </row>
     <row r="274">
-      <c r="A274" s="17"/>
+      <c r="A274" s="16"/>
     </row>
     <row r="275">
-      <c r="A275" s="17"/>
+      <c r="A275" s="16"/>
     </row>
     <row r="276">
-      <c r="A276" s="17"/>
+      <c r="A276" s="16"/>
     </row>
     <row r="277">
-      <c r="A277" s="17"/>
+      <c r="A277" s="16"/>
     </row>
     <row r="278">
-      <c r="A278" s="17"/>
+      <c r="A278" s="16"/>
     </row>
     <row r="279">
-      <c r="A279" s="17"/>
+      <c r="A279" s="16"/>
     </row>
     <row r="280">
-      <c r="A280" s="17"/>
+      <c r="A280" s="16"/>
     </row>
     <row r="281">
-      <c r="A281" s="17"/>
+      <c r="A281" s="16"/>
     </row>
     <row r="282">
-      <c r="A282" s="17"/>
+      <c r="A282" s="16"/>
     </row>
     <row r="283">
-      <c r="A283" s="17"/>
+      <c r="A283" s="16"/>
     </row>
     <row r="284">
-      <c r="A284" s="17"/>
+      <c r="A284" s="16"/>
     </row>
     <row r="285">
-      <c r="A285" s="17"/>
+      <c r="A285" s="16"/>
     </row>
     <row r="286">
-      <c r="A286" s="17"/>
+      <c r="A286" s="16"/>
     </row>
     <row r="287">
-      <c r="A287" s="17"/>
+      <c r="A287" s="16"/>
     </row>
     <row r="288">
-      <c r="A288" s="17"/>
+      <c r="A288" s="16"/>
     </row>
     <row r="289">
-      <c r="A289" s="17"/>
+      <c r="A289" s="16"/>
     </row>
     <row r="290">
-      <c r="A290" s="17"/>
+      <c r="A290" s="16"/>
     </row>
     <row r="291">
-      <c r="A291" s="17"/>
+      <c r="A291" s="16"/>
     </row>
     <row r="292">
-      <c r="A292" s="17"/>
+      <c r="A292" s="16"/>
     </row>
     <row r="293">
-      <c r="A293" s="17"/>
+      <c r="A293" s="16"/>
     </row>
     <row r="294">
-      <c r="A294" s="17"/>
+      <c r="A294" s="16"/>
     </row>
     <row r="295">
-      <c r="A295" s="17"/>
+      <c r="A295" s="16"/>
     </row>
     <row r="296">
-      <c r="A296" s="17"/>
+      <c r="A296" s="16"/>
     </row>
     <row r="297">
-      <c r="A297" s="17"/>
+      <c r="A297" s="16"/>
     </row>
     <row r="298">
-      <c r="A298" s="17"/>
+      <c r="A298" s="16"/>
     </row>
     <row r="299">
-      <c r="A299" s="17"/>
+      <c r="A299" s="16"/>
     </row>
     <row r="300">
-      <c r="A300" s="17"/>
+      <c r="A300" s="16"/>
     </row>
     <row r="301">
-      <c r="A301" s="17"/>
+      <c r="A301" s="16"/>
     </row>
     <row r="302">
-      <c r="A302" s="17"/>
+      <c r="A302" s="16"/>
     </row>
     <row r="303">
-      <c r="A303" s="17"/>
+      <c r="A303" s="16"/>
     </row>
     <row r="304">
-      <c r="A304" s="17"/>
+      <c r="A304" s="16"/>
     </row>
     <row r="305">
-      <c r="A305" s="17"/>
+      <c r="A305" s="16"/>
     </row>
     <row r="306">
-      <c r="A306" s="17"/>
+      <c r="A306" s="16"/>
     </row>
     <row r="307">
-      <c r="A307" s="17"/>
+      <c r="A307" s="16"/>
     </row>
     <row r="308">
-      <c r="A308" s="17"/>
+      <c r="A308" s="16"/>
     </row>
     <row r="309">
-      <c r="A309" s="17"/>
+      <c r="A309" s="16"/>
     </row>
     <row r="310">
-      <c r="A310" s="17"/>
+      <c r="A310" s="16"/>
     </row>
     <row r="311">
-      <c r="A311" s="17"/>
+      <c r="A311" s="16"/>
     </row>
     <row r="312">
-      <c r="A312" s="17"/>
+      <c r="A312" s="16"/>
     </row>
     <row r="313">
-      <c r="A313" s="17"/>
+      <c r="A313" s="16"/>
     </row>
     <row r="314">
-      <c r="A314" s="17"/>
+      <c r="A314" s="16"/>
     </row>
     <row r="315">
-      <c r="A315" s="17"/>
+      <c r="A315" s="16"/>
     </row>
     <row r="316">
-      <c r="A316" s="17"/>
+      <c r="A316" s="16"/>
     </row>
     <row r="317">
-      <c r="A317" s="17"/>
+      <c r="A317" s="16"/>
     </row>
     <row r="318">
-      <c r="A318" s="17"/>
+      <c r="A318" s="16"/>
     </row>
     <row r="319">
-      <c r="A319" s="17"/>
+      <c r="A319" s="16"/>
     </row>
     <row r="320">
-      <c r="A320" s="17"/>
+      <c r="A320" s="16"/>
     </row>
     <row r="321">
-      <c r="A321" s="17"/>
+      <c r="A321" s="16"/>
     </row>
     <row r="322">
-      <c r="A322" s="17"/>
+      <c r="A322" s="16"/>
     </row>
     <row r="323">
-      <c r="A323" s="17"/>
+      <c r="A323" s="16"/>
     </row>
     <row r="324">
-      <c r="A324" s="17"/>
+      <c r="A324" s="16"/>
     </row>
     <row r="325">
-      <c r="A325" s="17"/>
+      <c r="A325" s="16"/>
     </row>
     <row r="326">
-      <c r="A326" s="17"/>
+      <c r="A326" s="16"/>
     </row>
     <row r="327">
-      <c r="A327" s="17"/>
+      <c r="A327" s="16"/>
     </row>
     <row r="328">
-      <c r="A328" s="17"/>
+      <c r="A328" s="16"/>
     </row>
     <row r="329">
-      <c r="A329" s="17"/>
+      <c r="A329" s="16"/>
     </row>
     <row r="330">
-      <c r="A330" s="17"/>
+      <c r="A330" s="16"/>
     </row>
     <row r="331">
-      <c r="A331" s="17"/>
+      <c r="A331" s="16"/>
     </row>
     <row r="332">
-      <c r="A332" s="17"/>
+      <c r="A332" s="16"/>
     </row>
     <row r="333">
-      <c r="A333" s="17"/>
+      <c r="A333" s="16"/>
     </row>
     <row r="334">
-      <c r="A334" s="17"/>
+      <c r="A334" s="16"/>
     </row>
     <row r="335">
-      <c r="A335" s="17"/>
+      <c r="A335" s="16"/>
     </row>
     <row r="336">
-      <c r="A336" s="17"/>
+      <c r="A336" s="16"/>
     </row>
     <row r="337">
-      <c r="A337" s="17"/>
+      <c r="A337" s="16"/>
     </row>
     <row r="338">
-      <c r="A338" s="17"/>
+      <c r="A338" s="16"/>
     </row>
     <row r="339">
-      <c r="A339" s="17"/>
+      <c r="A339" s="16"/>
     </row>
     <row r="340">
-      <c r="A340" s="17"/>
+      <c r="A340" s="16"/>
     </row>
     <row r="341">
-      <c r="A341" s="17"/>
+      <c r="A341" s="16"/>
     </row>
     <row r="342">
-      <c r="A342" s="17"/>
+      <c r="A342" s="16"/>
     </row>
     <row r="343">
-      <c r="A343" s="17"/>
+      <c r="A343" s="16"/>
     </row>
     <row r="344">
-      <c r="A344" s="17"/>
+      <c r="A344" s="16"/>
     </row>
     <row r="345">
-      <c r="A345" s="17"/>
+      <c r="A345" s="16"/>
     </row>
     <row r="346">
-      <c r="A346" s="17"/>
+      <c r="A346" s="16"/>
     </row>
     <row r="347">
-      <c r="A347" s="17"/>
+      <c r="A347" s="16"/>
     </row>
     <row r="348">
-      <c r="A348" s="17"/>
+      <c r="A348" s="16"/>
     </row>
     <row r="349">
-      <c r="A349" s="17"/>
+      <c r="A349" s="16"/>
     </row>
     <row r="350">
-      <c r="A350" s="17"/>
+      <c r="A350" s="16"/>
     </row>
     <row r="351">
-      <c r="A351" s="17"/>
+      <c r="A351" s="16"/>
     </row>
     <row r="352">
-      <c r="A352" s="17"/>
+      <c r="A352" s="16"/>
     </row>
     <row r="353">
-      <c r="A353" s="17"/>
+      <c r="A353" s="16"/>
     </row>
     <row r="354">
-      <c r="A354" s="17"/>
+      <c r="A354" s="16"/>
     </row>
     <row r="355">
-      <c r="A355" s="17"/>
+      <c r="A355" s="16"/>
     </row>
     <row r="356">
-      <c r="A356" s="17"/>
+      <c r="A356" s="16"/>
     </row>
     <row r="357">
-      <c r="A357" s="17"/>
+      <c r="A357" s="16"/>
     </row>
     <row r="358">
-      <c r="A358" s="17"/>
+      <c r="A358" s="16"/>
     </row>
     <row r="359">
-      <c r="A359" s="17"/>
+      <c r="A359" s="16"/>
     </row>
     <row r="360">
-      <c r="A360" s="17"/>
+      <c r="A360" s="16"/>
     </row>
     <row r="361">
-      <c r="A361" s="17"/>
+      <c r="A361" s="16"/>
     </row>
     <row r="362">
-      <c r="A362" s="17"/>
+      <c r="A362" s="16"/>
     </row>
     <row r="363">
-      <c r="A363" s="17"/>
+      <c r="A363" s="16"/>
     </row>
     <row r="364">
-      <c r="A364" s="17"/>
+      <c r="A364" s="16"/>
     </row>
     <row r="365">
-      <c r="A365" s="17"/>
+      <c r="A365" s="16"/>
     </row>
     <row r="366">
-      <c r="A366" s="17"/>
+      <c r="A366" s="16"/>
     </row>
     <row r="367">
-      <c r="A367" s="17"/>
+      <c r="A367" s="16"/>
     </row>
     <row r="368">
-      <c r="A368" s="17"/>
+      <c r="A368" s="16"/>
     </row>
     <row r="369">
-      <c r="A369" s="17"/>
+      <c r="A369" s="16"/>
     </row>
     <row r="370">
-      <c r="A370" s="17"/>
+      <c r="A370" s="16"/>
     </row>
     <row r="371">
-      <c r="A371" s="17"/>
+      <c r="A371" s="16"/>
     </row>
     <row r="372">
-      <c r="A372" s="17"/>
+      <c r="A372" s="16"/>
     </row>
     <row r="373">
-      <c r="A373" s="17"/>
+      <c r="A373" s="16"/>
     </row>
     <row r="374">
-      <c r="A374" s="17"/>
+      <c r="A374" s="16"/>
     </row>
     <row r="375">
-      <c r="A375" s="17"/>
+      <c r="A375" s="16"/>
     </row>
     <row r="376">
-      <c r="A376" s="17"/>
+      <c r="A376" s="16"/>
     </row>
     <row r="377">
-      <c r="A377" s="17"/>
+      <c r="A377" s="16"/>
     </row>
     <row r="378">
-      <c r="A378" s="17"/>
+      <c r="A378" s="16"/>
     </row>
     <row r="379">
-      <c r="A379" s="17"/>
+      <c r="A379" s="16"/>
     </row>
     <row r="380">
-      <c r="A380" s="17"/>
+      <c r="A380" s="16"/>
     </row>
     <row r="381">
-      <c r="A381" s="17"/>
+      <c r="A381" s="16"/>
     </row>
     <row r="382">
-      <c r="A382" s="17"/>
+      <c r="A382" s="16"/>
     </row>
     <row r="383">
-      <c r="A383" s="17"/>
+      <c r="A383" s="16"/>
     </row>
     <row r="384">
-      <c r="A384" s="17"/>
+      <c r="A384" s="16"/>
     </row>
     <row r="385">
-      <c r="A385" s="17"/>
+      <c r="A385" s="16"/>
     </row>
     <row r="386">
-      <c r="A386" s="17"/>
+      <c r="A386" s="16"/>
     </row>
     <row r="387">
-      <c r="A387" s="17"/>
+      <c r="A387" s="16"/>
     </row>
     <row r="388">
-      <c r="A388" s="17"/>
+      <c r="A388" s="16"/>
     </row>
     <row r="389">
-      <c r="A389" s="17"/>
+      <c r="A389" s="16"/>
     </row>
     <row r="390">
-      <c r="A390" s="17"/>
+      <c r="A390" s="16"/>
     </row>
     <row r="391">
-      <c r="A391" s="17"/>
+      <c r="A391" s="16"/>
     </row>
     <row r="392">
-      <c r="A392" s="17"/>
+      <c r="A392" s="16"/>
     </row>
     <row r="393">
-      <c r="A393" s="17"/>
+      <c r="A393" s="16"/>
     </row>
     <row r="394">
-      <c r="A394" s="17"/>
+      <c r="A394" s="16"/>
     </row>
     <row r="395">
-      <c r="A395" s="17"/>
+      <c r="A395" s="16"/>
     </row>
     <row r="396">
-      <c r="A396" s="17"/>
+      <c r="A396" s="16"/>
     </row>
     <row r="397">
-      <c r="A397" s="17"/>
+      <c r="A397" s="16"/>
     </row>
     <row r="398">
-      <c r="A398" s="17"/>
+      <c r="A398" s="16"/>
     </row>
     <row r="399">
-      <c r="A399" s="17"/>
+      <c r="A399" s="16"/>
     </row>
     <row r="400">
-      <c r="A400" s="17"/>
+      <c r="A400" s="16"/>
     </row>
     <row r="401">
-      <c r="A401" s="17"/>
+      <c r="A401" s="16"/>
     </row>
     <row r="402">
-      <c r="A402" s="17"/>
+      <c r="A402" s="16"/>
     </row>
     <row r="403">
-      <c r="A403" s="17"/>
+      <c r="A403" s="16"/>
     </row>
     <row r="404">
-      <c r="A404" s="17"/>
+      <c r="A404" s="16"/>
     </row>
     <row r="405">
-      <c r="A405" s="17"/>
+      <c r="A405" s="16"/>
     </row>
     <row r="406">
-      <c r="A406" s="17"/>
+      <c r="A406" s="16"/>
     </row>
     <row r="407">
-      <c r="A407" s="17"/>
+      <c r="A407" s="16"/>
     </row>
     <row r="408">
-      <c r="A408" s="17"/>
+      <c r="A408" s="16"/>
     </row>
     <row r="409">
-      <c r="A409" s="17"/>
+      <c r="A409" s="16"/>
     </row>
     <row r="410">
-      <c r="A410" s="17"/>
+      <c r="A410" s="16"/>
     </row>
     <row r="411">
-      <c r="A411" s="17"/>
+      <c r="A411" s="16"/>
     </row>
     <row r="412">
-      <c r="A412" s="17"/>
+      <c r="A412" s="16"/>
     </row>
     <row r="413">
-      <c r="A413" s="17"/>
+      <c r="A413" s="16"/>
     </row>
     <row r="414">
-      <c r="A414" s="17"/>
+      <c r="A414" s="16"/>
     </row>
     <row r="415">
-      <c r="A415" s="17"/>
+      <c r="A415" s="16"/>
     </row>
     <row r="416">
-      <c r="A416" s="17"/>
+      <c r="A416" s="16"/>
     </row>
     <row r="417">
-      <c r="A417" s="17"/>
+      <c r="A417" s="16"/>
     </row>
     <row r="418">
-      <c r="A418" s="17"/>
+      <c r="A418" s="16"/>
     </row>
     <row r="419">
-      <c r="A419" s="17"/>
+      <c r="A419" s="16"/>
     </row>
     <row r="420">
-      <c r="A420" s="17"/>
+      <c r="A420" s="16"/>
     </row>
     <row r="421">
-      <c r="A421" s="17"/>
+      <c r="A421" s="16"/>
     </row>
     <row r="422">
-      <c r="A422" s="17"/>
+      <c r="A422" s="16"/>
     </row>
     <row r="423">
-      <c r="A423" s="17"/>
+      <c r="A423" s="16"/>
     </row>
     <row r="424">
-      <c r="A424" s="17"/>
+      <c r="A424" s="16"/>
     </row>
     <row r="425">
-      <c r="A425" s="17"/>
+      <c r="A425" s="16"/>
     </row>
     <row r="426">
-      <c r="A426" s="17"/>
+      <c r="A426" s="16"/>
     </row>
     <row r="427">
-      <c r="A427" s="17"/>
+      <c r="A427" s="16"/>
     </row>
     <row r="428">
-      <c r="A428" s="17"/>
+      <c r="A428" s="16"/>
     </row>
     <row r="429">
-      <c r="A429" s="17"/>
+      <c r="A429" s="16"/>
     </row>
     <row r="430">
-      <c r="A430" s="17"/>
+      <c r="A430" s="16"/>
     </row>
     <row r="431">
-      <c r="A431" s="17"/>
+      <c r="A431" s="16"/>
     </row>
     <row r="432">
-      <c r="A432" s="17"/>
+      <c r="A432" s="16"/>
     </row>
     <row r="433">
-      <c r="A433" s="17"/>
+      <c r="A433" s="16"/>
     </row>
     <row r="434">
-      <c r="A434" s="17"/>
+      <c r="A434" s="16"/>
     </row>
     <row r="435">
-      <c r="A435" s="17"/>
+      <c r="A435" s="16"/>
     </row>
     <row r="436">
-      <c r="A436" s="17"/>
+      <c r="A436" s="16"/>
     </row>
     <row r="437">
-      <c r="A437" s="17"/>
+      <c r="A437" s="16"/>
     </row>
     <row r="438">
-      <c r="A438" s="17"/>
+      <c r="A438" s="16"/>
     </row>
     <row r="439">
-      <c r="A439" s="17"/>
+      <c r="A439" s="16"/>
     </row>
     <row r="440">
-      <c r="A440" s="17"/>
+      <c r="A440" s="16"/>
     </row>
     <row r="441">
-      <c r="A441" s="17"/>
+      <c r="A441" s="16"/>
     </row>
     <row r="442">
-      <c r="A442" s="17"/>
+      <c r="A442" s="16"/>
     </row>
     <row r="443">
-      <c r="A443" s="17"/>
+      <c r="A443" s="16"/>
     </row>
     <row r="444">
-      <c r="A444" s="17"/>
+      <c r="A444" s="16"/>
     </row>
     <row r="445">
-      <c r="A445" s="17"/>
+      <c r="A445" s="16"/>
     </row>
     <row r="446">
-      <c r="A446" s="17"/>
+      <c r="A446" s="16"/>
     </row>
     <row r="447">
-      <c r="A447" s="17"/>
+      <c r="A447" s="16"/>
     </row>
     <row r="448">
-      <c r="A448" s="17"/>
+      <c r="A448" s="16"/>
     </row>
     <row r="449">
-      <c r="A449" s="17"/>
+      <c r="A449" s="16"/>
     </row>
     <row r="450">
-      <c r="A450" s="17"/>
+      <c r="A450" s="16"/>
     </row>
     <row r="451">
-      <c r="A451" s="17"/>
+      <c r="A451" s="16"/>
     </row>
     <row r="452">
-      <c r="A452" s="17"/>
+      <c r="A452" s="16"/>
     </row>
     <row r="453">
-      <c r="A453" s="17"/>
+      <c r="A453" s="16"/>
     </row>
     <row r="454">
-      <c r="A454" s="17"/>
+      <c r="A454" s="16"/>
     </row>
     <row r="455">
-      <c r="A455" s="17"/>
+      <c r="A455" s="16"/>
     </row>
     <row r="456">
-      <c r="A456" s="17"/>
+      <c r="A456" s="16"/>
     </row>
     <row r="457">
-      <c r="A457" s="17"/>
+      <c r="A457" s="16"/>
     </row>
     <row r="458">
-      <c r="A458" s="17"/>
+      <c r="A458" s="16"/>
     </row>
     <row r="459">
-      <c r="A459" s="17"/>
+      <c r="A459" s="16"/>
     </row>
     <row r="460">
-      <c r="A460" s="17"/>
+      <c r="A460" s="16"/>
     </row>
     <row r="461">
-      <c r="A461" s="17"/>
+      <c r="A461" s="16"/>
     </row>
     <row r="462">
-      <c r="A462" s="17"/>
+      <c r="A462" s="16"/>
     </row>
     <row r="463">
-      <c r="A463" s="17"/>
+      <c r="A463" s="16"/>
     </row>
     <row r="464">
-      <c r="A464" s="17"/>
+      <c r="A464" s="16"/>
     </row>
     <row r="465">
-      <c r="A465" s="17"/>
+      <c r="A465" s="16"/>
     </row>
     <row r="466">
-      <c r="A466" s="17"/>
+      <c r="A466" s="16"/>
     </row>
     <row r="467">
-      <c r="A467" s="17"/>
+      <c r="A467" s="16"/>
     </row>
     <row r="468">
-      <c r="A468" s="17"/>
+      <c r="A468" s="16"/>
     </row>
     <row r="469">
-      <c r="A469" s="17"/>
+      <c r="A469" s="16"/>
     </row>
     <row r="470">
-      <c r="A470" s="17"/>
+      <c r="A470" s="16"/>
     </row>
     <row r="471">
-      <c r="A471" s="17"/>
+      <c r="A471" s="16"/>
     </row>
     <row r="472">
-      <c r="A472" s="17"/>
+      <c r="A472" s="16"/>
     </row>
     <row r="473">
-      <c r="A473" s="17"/>
+      <c r="A473" s="16"/>
     </row>
     <row r="474">
-      <c r="A474" s="17"/>
+      <c r="A474" s="16"/>
     </row>
     <row r="475">
-      <c r="A475" s="17"/>
+      <c r="A475" s="16"/>
     </row>
     <row r="476">
-      <c r="A476" s="17"/>
+      <c r="A476" s="16"/>
     </row>
     <row r="477">
-      <c r="A477" s="17"/>
+      <c r="A477" s="16"/>
     </row>
     <row r="478">
-      <c r="A478" s="17"/>
+      <c r="A478" s="16"/>
     </row>
     <row r="479">
-      <c r="A479" s="17"/>
+      <c r="A479" s="16"/>
     </row>
     <row r="480">
-      <c r="A480" s="17"/>
+      <c r="A480" s="16"/>
     </row>
     <row r="481">
-      <c r="A481" s="17"/>
+      <c r="A481" s="16"/>
     </row>
     <row r="482">
-      <c r="A482" s="17"/>
+      <c r="A482" s="16"/>
     </row>
     <row r="483">
-      <c r="A483" s="17"/>
+      <c r="A483" s="16"/>
     </row>
     <row r="484">
-      <c r="A484" s="17"/>
+      <c r="A484" s="16"/>
     </row>
     <row r="485">
-      <c r="A485" s="17"/>
+      <c r="A485" s="16"/>
     </row>
     <row r="486">
-      <c r="A486" s="17"/>
+      <c r="A486" s="16"/>
     </row>
     <row r="487">
-      <c r="A487" s="17"/>
+      <c r="A487" s="16"/>
     </row>
     <row r="488">
-      <c r="A488" s="17"/>
+      <c r="A488" s="16"/>
     </row>
     <row r="489">
-      <c r="A489" s="17"/>
+      <c r="A489" s="16"/>
     </row>
     <row r="490">
-      <c r="A490" s="17"/>
+      <c r="A490" s="16"/>
     </row>
     <row r="491">
-      <c r="A491" s="17"/>
+      <c r="A491" s="16"/>
     </row>
     <row r="492">
-      <c r="A492" s="17"/>
+      <c r="A492" s="16"/>
     </row>
     <row r="493">
-      <c r="A493" s="17"/>
+      <c r="A493" s="16"/>
     </row>
     <row r="494">
-      <c r="A494" s="17"/>
+      <c r="A494" s="16"/>
     </row>
     <row r="495">
-      <c r="A495" s="17"/>
+      <c r="A495" s="16"/>
     </row>
     <row r="496">
-      <c r="A496" s="17"/>
+      <c r="A496" s="16"/>
     </row>
     <row r="497">
-      <c r="A497" s="17"/>
+      <c r="A497" s="16"/>
     </row>
     <row r="498">
-      <c r="A498" s="17"/>
+      <c r="A498" s="16"/>
     </row>
     <row r="499">
-      <c r="A499" s="17"/>
+      <c r="A499" s="16"/>
     </row>
     <row r="500">
-      <c r="A500" s="17"/>
+      <c r="A500" s="16"/>
     </row>
     <row r="501">
-      <c r="A501" s="17"/>
+      <c r="A501" s="16"/>
     </row>
     <row r="502">
-      <c r="A502" s="17"/>
+      <c r="A502" s="16"/>
     </row>
     <row r="503">
-      <c r="A503" s="17"/>
+      <c r="A503" s="16"/>
     </row>
     <row r="504">
-      <c r="A504" s="17"/>
+      <c r="A504" s="16"/>
     </row>
     <row r="505">
-      <c r="A505" s="17"/>
+      <c r="A505" s="16"/>
     </row>
     <row r="506">
-      <c r="A506" s="17"/>
+      <c r="A506" s="16"/>
     </row>
     <row r="507">
-      <c r="A507" s="17"/>
+      <c r="A507" s="16"/>
     </row>
     <row r="508">
-      <c r="A508" s="17"/>
+      <c r="A508" s="16"/>
     </row>
     <row r="509">
-      <c r="A509" s="17"/>
+      <c r="A509" s="16"/>
     </row>
     <row r="510">
-      <c r="A510" s="17"/>
+      <c r="A510" s="16"/>
     </row>
     <row r="511">
-      <c r="A511" s="17"/>
+      <c r="A511" s="16"/>
     </row>
     <row r="512">
-      <c r="A512" s="17"/>
+      <c r="A512" s="16"/>
     </row>
     <row r="513">
-      <c r="A513" s="17"/>
+      <c r="A513" s="16"/>
     </row>
     <row r="514">
-      <c r="A514" s="17"/>
+      <c r="A514" s="16"/>
     </row>
     <row r="515">
-      <c r="A515" s="17"/>
+      <c r="A515" s="16"/>
     </row>
     <row r="516">
-      <c r="A516" s="17"/>
+      <c r="A516" s="16"/>
     </row>
     <row r="517">
-      <c r="A517" s="17"/>
+      <c r="A517" s="16"/>
     </row>
     <row r="518">
-      <c r="A518" s="17"/>
+      <c r="A518" s="16"/>
     </row>
     <row r="519">
-      <c r="A519" s="17"/>
+      <c r="A519" s="16"/>
     </row>
     <row r="520">
-      <c r="A520" s="17"/>
+      <c r="A520" s="16"/>
     </row>
     <row r="521">
-      <c r="A521" s="17"/>
+      <c r="A521" s="16"/>
     </row>
     <row r="522">
-      <c r="A522" s="17"/>
+      <c r="A522" s="16"/>
     </row>
     <row r="523">
-      <c r="A523" s="17"/>
+      <c r="A523" s="16"/>
     </row>
     <row r="524">
-      <c r="A524" s="17"/>
+      <c r="A524" s="16"/>
     </row>
     <row r="525">
-      <c r="A525" s="17"/>
+      <c r="A525" s="16"/>
     </row>
     <row r="526">
-      <c r="A526" s="17"/>
+      <c r="A526" s="16"/>
     </row>
     <row r="527">
-      <c r="A527" s="17"/>
+      <c r="A527" s="16"/>
     </row>
     <row r="528">
-      <c r="A528" s="17"/>
+      <c r="A528" s="16"/>
     </row>
     <row r="529">
-      <c r="A529" s="17"/>
+      <c r="A529" s="16"/>
     </row>
     <row r="530">
-      <c r="A530" s="17"/>
+      <c r="A530" s="16"/>
     </row>
     <row r="531">
-      <c r="A531" s="17"/>
+      <c r="A531" s="16"/>
     </row>
     <row r="532">
-      <c r="A532" s="17"/>
+      <c r="A532" s="16"/>
     </row>
     <row r="533">
-      <c r="A533" s="17"/>
+      <c r="A533" s="16"/>
     </row>
     <row r="534">
-      <c r="A534" s="17"/>
+      <c r="A534" s="16"/>
     </row>
     <row r="535">
-      <c r="A535" s="17"/>
+      <c r="A535" s="16"/>
     </row>
     <row r="536">
-      <c r="A536" s="17"/>
+      <c r="A536" s="16"/>
     </row>
     <row r="537">
-      <c r="A537" s="17"/>
+      <c r="A537" s="16"/>
     </row>
     <row r="538">
-      <c r="A538" s="17"/>
+      <c r="A538" s="16"/>
     </row>
     <row r="539">
-      <c r="A539" s="17"/>
+      <c r="A539" s="16"/>
     </row>
     <row r="540">
-      <c r="A540" s="17"/>
+      <c r="A540" s="16"/>
     </row>
     <row r="541">
-      <c r="A541" s="17"/>
+      <c r="A541" s="16"/>
     </row>
     <row r="542">
-      <c r="A542" s="17"/>
+      <c r="A542" s="16"/>
     </row>
     <row r="543">
-      <c r="A543" s="17"/>
+      <c r="A543" s="16"/>
     </row>
     <row r="544">
-      <c r="A544" s="17"/>
+      <c r="A544" s="16"/>
     </row>
     <row r="545">
-      <c r="A545" s="17"/>
+      <c r="A545" s="16"/>
     </row>
     <row r="546">
-      <c r="A546" s="17"/>
+      <c r="A546" s="16"/>
     </row>
     <row r="547">
-      <c r="A547" s="17"/>
+      <c r="A547" s="16"/>
     </row>
     <row r="548">
-      <c r="A548" s="17"/>
+      <c r="A548" s="16"/>
     </row>
     <row r="549">
-      <c r="A549" s="17"/>
+      <c r="A549" s="16"/>
     </row>
     <row r="550">
-      <c r="A550" s="17"/>
+      <c r="A550" s="16"/>
     </row>
     <row r="551">
-      <c r="A551" s="17"/>
+      <c r="A551" s="16"/>
     </row>
     <row r="552">
-      <c r="A552" s="17"/>
+      <c r="A552" s="16"/>
     </row>
     <row r="553">
-      <c r="A553" s="17"/>
+      <c r="A553" s="16"/>
     </row>
     <row r="554">
-      <c r="A554" s="17"/>
+      <c r="A554" s="16"/>
     </row>
     <row r="555">
-      <c r="A555" s="17"/>
+      <c r="A555" s="16"/>
     </row>
     <row r="556">
-      <c r="A556" s="17"/>
+      <c r="A556" s="16"/>
     </row>
     <row r="557">
-      <c r="A557" s="17"/>
+      <c r="A557" s="16"/>
     </row>
     <row r="558">
-      <c r="A558" s="17"/>
+      <c r="A558" s="16"/>
     </row>
     <row r="559">
-      <c r="A559" s="17"/>
+      <c r="A559" s="16"/>
     </row>
     <row r="560">
-      <c r="A560" s="17"/>
+      <c r="A560" s="16"/>
     </row>
     <row r="561">
-      <c r="A561" s="17"/>
+      <c r="A561" s="16"/>
     </row>
     <row r="562">
-      <c r="A562" s="17"/>
+      <c r="A562" s="16"/>
     </row>
     <row r="563">
-      <c r="A563" s="17"/>
+      <c r="A563" s="16"/>
     </row>
     <row r="564">
-      <c r="A564" s="17"/>
+      <c r="A564" s="16"/>
     </row>
     <row r="565">
-      <c r="A565" s="17"/>
+      <c r="A565" s="16"/>
     </row>
     <row r="566">
-      <c r="A566" s="17"/>
+      <c r="A566" s="16"/>
     </row>
     <row r="567">
-      <c r="A567" s="17"/>
+      <c r="A567" s="16"/>
     </row>
     <row r="568">
-      <c r="A568" s="17"/>
+      <c r="A568" s="16"/>
     </row>
     <row r="569">
-      <c r="A569" s="17"/>
+      <c r="A569" s="16"/>
     </row>
     <row r="570">
-      <c r="A570" s="17"/>
+      <c r="A570" s="16"/>
     </row>
     <row r="571">
-      <c r="A571" s="17"/>
+      <c r="A571" s="16"/>
     </row>
     <row r="572">
-      <c r="A572" s="17"/>
+      <c r="A572" s="16"/>
     </row>
     <row r="573">
-      <c r="A573" s="17"/>
+      <c r="A573" s="16"/>
     </row>
     <row r="574">
-      <c r="A574" s="17"/>
+      <c r="A574" s="16"/>
     </row>
     <row r="575">
-      <c r="A575" s="17"/>
+      <c r="A575" s="16"/>
     </row>
     <row r="576">
-      <c r="A576" s="17"/>
+      <c r="A576" s="16"/>
     </row>
     <row r="577">
-      <c r="A577" s="17"/>
+      <c r="A577" s="16"/>
     </row>
     <row r="578">
-      <c r="A578" s="17"/>
+      <c r="A578" s="16"/>
     </row>
     <row r="579">
-      <c r="A579" s="17"/>
+      <c r="A579" s="16"/>
     </row>
     <row r="580">
-      <c r="A580" s="17"/>
+      <c r="A580" s="16"/>
     </row>
     <row r="581">
-      <c r="A581" s="17"/>
+      <c r="A581" s="16"/>
     </row>
     <row r="582">
-      <c r="A582" s="17"/>
+      <c r="A582" s="16"/>
     </row>
     <row r="583">
-      <c r="A583" s="17"/>
+      <c r="A583" s="16"/>
     </row>
     <row r="584">
-      <c r="A584" s="17"/>
+      <c r="A584" s="16"/>
     </row>
     <row r="585">
-      <c r="A585" s="17"/>
+      <c r="A585" s="16"/>
     </row>
     <row r="586">
-      <c r="A586" s="17"/>
+      <c r="A586" s="16"/>
     </row>
     <row r="587">
-      <c r="A587" s="17"/>
+      <c r="A587" s="16"/>
     </row>
     <row r="588">
-      <c r="A588" s="17"/>
+      <c r="A588" s="16"/>
     </row>
     <row r="589">
-      <c r="A589" s="17"/>
+      <c r="A589" s="16"/>
     </row>
     <row r="590">
-      <c r="A590" s="17"/>
+      <c r="A590" s="16"/>
     </row>
     <row r="591">
-      <c r="A591" s="17"/>
+      <c r="A591" s="16"/>
     </row>
     <row r="592">
-      <c r="A592" s="17"/>
+      <c r="A592" s="16"/>
     </row>
     <row r="593">
-      <c r="A593" s="17"/>
+      <c r="A593" s="16"/>
     </row>
     <row r="594">
-      <c r="A594" s="17"/>
+      <c r="A594" s="16"/>
     </row>
     <row r="595">
-      <c r="A595" s="17"/>
+      <c r="A595" s="16"/>
     </row>
     <row r="596">
-      <c r="A596" s="17"/>
+      <c r="A596" s="16"/>
     </row>
     <row r="597">
-      <c r="A597" s="17"/>
+      <c r="A597" s="16"/>
     </row>
     <row r="598">
-      <c r="A598" s="17"/>
+      <c r="A598" s="16"/>
     </row>
     <row r="599">
-      <c r="A599" s="17"/>
+      <c r="A599" s="16"/>
     </row>
     <row r="600">
-      <c r="A600" s="17"/>
+      <c r="A600" s="16"/>
     </row>
     <row r="601">
-      <c r="A601" s="17"/>
+      <c r="A601" s="16"/>
     </row>
     <row r="602">
-      <c r="A602" s="17"/>
+      <c r="A602" s="16"/>
     </row>
     <row r="603">
-      <c r="A603" s="17"/>
+      <c r="A603" s="16"/>
     </row>
     <row r="604">
-      <c r="A604" s="17"/>
+      <c r="A604" s="16"/>
     </row>
     <row r="605">
-      <c r="A605" s="17"/>
+      <c r="A605" s="16"/>
     </row>
     <row r="606">
-      <c r="A606" s="17"/>
+      <c r="A606" s="16"/>
     </row>
     <row r="607">
-      <c r="A607" s="17"/>
+      <c r="A607" s="16"/>
     </row>
     <row r="608">
-      <c r="A608" s="17"/>
+      <c r="A608" s="16"/>
     </row>
     <row r="609">
-      <c r="A609" s="17"/>
+      <c r="A609" s="16"/>
     </row>
     <row r="610">
-      <c r="A610" s="17"/>
+      <c r="A610" s="16"/>
     </row>
     <row r="611">
-      <c r="A611" s="17"/>
+      <c r="A611" s="16"/>
     </row>
     <row r="612">
-      <c r="A612" s="17"/>
+      <c r="A612" s="16"/>
     </row>
     <row r="613">
-      <c r="A613" s="17"/>
+      <c r="A613" s="16"/>
     </row>
     <row r="614">
-      <c r="A614" s="17"/>
+      <c r="A614" s="16"/>
     </row>
     <row r="615">
-      <c r="A615" s="17"/>
+      <c r="A615" s="16"/>
     </row>
     <row r="616">
-      <c r="A616" s="17"/>
+      <c r="A616" s="16"/>
     </row>
     <row r="617">
-      <c r="A617" s="17"/>
+      <c r="A617" s="16"/>
     </row>
     <row r="618">
-      <c r="A618" s="17"/>
+      <c r="A618" s="16"/>
     </row>
     <row r="619">
-      <c r="A619" s="17"/>
+      <c r="A619" s="16"/>
     </row>
     <row r="620">
-      <c r="A620" s="17"/>
+      <c r="A620" s="16"/>
     </row>
     <row r="621">
-      <c r="A621" s="17"/>
+      <c r="A621" s="16"/>
     </row>
     <row r="622">
-      <c r="A622" s="17"/>
+      <c r="A622" s="16"/>
     </row>
     <row r="623">
-      <c r="A623" s="17"/>
+      <c r="A623" s="16"/>
     </row>
     <row r="624">
-      <c r="A624" s="17"/>
+      <c r="A624" s="16"/>
     </row>
     <row r="625">
-      <c r="A625" s="17"/>
+      <c r="A625" s="16"/>
     </row>
     <row r="626">
-      <c r="A626" s="17"/>
+      <c r="A626" s="16"/>
     </row>
     <row r="627">
-      <c r="A627" s="17"/>
+      <c r="A627" s="16"/>
     </row>
     <row r="628">
-      <c r="A628" s="17"/>
+      <c r="A628" s="16"/>
     </row>
     <row r="629">
-      <c r="A629" s="17"/>
+      <c r="A629" s="16"/>
     </row>
     <row r="630">
-      <c r="A630" s="17"/>
+      <c r="A630" s="16"/>
     </row>
     <row r="631">
-      <c r="A631" s="17"/>
+      <c r="A631" s="16"/>
     </row>
     <row r="632">
-      <c r="A632" s="17"/>
+      <c r="A632" s="16"/>
     </row>
     <row r="633">
-      <c r="A633" s="17"/>
+      <c r="A633" s="16"/>
     </row>
     <row r="634">
-      <c r="A634" s="17"/>
+      <c r="A634" s="16"/>
     </row>
     <row r="635">
-      <c r="A635" s="17"/>
+      <c r="A635" s="16"/>
     </row>
     <row r="636">
-      <c r="A636" s="17"/>
+      <c r="A636" s="16"/>
     </row>
     <row r="637">
-      <c r="A637" s="17"/>
+      <c r="A637" s="16"/>
     </row>
     <row r="638">
-      <c r="A638" s="17"/>
+      <c r="A638" s="16"/>
     </row>
     <row r="639">
-      <c r="A639" s="17"/>
+      <c r="A639" s="16"/>
     </row>
     <row r="640">
-      <c r="A640" s="17"/>
+      <c r="A640" s="16"/>
     </row>
     <row r="641">
-      <c r="A641" s="17"/>
+      <c r="A641" s="16"/>
     </row>
     <row r="642">
-      <c r="A642" s="17"/>
+      <c r="A642" s="16"/>
     </row>
     <row r="643">
-      <c r="A643" s="17"/>
+      <c r="A643" s="16"/>
     </row>
     <row r="644">
-      <c r="A644" s="17"/>
+      <c r="A644" s="16"/>
     </row>
     <row r="645">
-      <c r="A645" s="17"/>
+      <c r="A645" s="16"/>
     </row>
     <row r="646">
-      <c r="A646" s="17"/>
+      <c r="A646" s="16"/>
     </row>
     <row r="647">
-      <c r="A647" s="17"/>
+      <c r="A647" s="16"/>
     </row>
     <row r="648">
-      <c r="A648" s="17"/>
+      <c r="A648" s="16"/>
     </row>
     <row r="649">
-      <c r="A649" s="17"/>
+      <c r="A649" s="16"/>
     </row>
     <row r="650">
-      <c r="A650" s="17"/>
+      <c r="A650" s="16"/>
     </row>
     <row r="651">
-      <c r="A651" s="17"/>
+      <c r="A651" s="16"/>
     </row>
     <row r="652">
-      <c r="A652" s="17"/>
+      <c r="A652" s="16"/>
     </row>
     <row r="653">
-      <c r="A653" s="17"/>
+      <c r="A653" s="16"/>
     </row>
     <row r="654">
-      <c r="A654" s="17"/>
+      <c r="A654" s="16"/>
     </row>
     <row r="655">
-      <c r="A655" s="17"/>
+      <c r="A655" s="16"/>
     </row>
     <row r="656">
-      <c r="A656" s="17"/>
+      <c r="A656" s="16"/>
     </row>
     <row r="657">
-      <c r="A657" s="17"/>
+      <c r="A657" s="16"/>
     </row>
     <row r="658">
-      <c r="A658" s="17"/>
+      <c r="A658" s="16"/>
     </row>
     <row r="659">
-      <c r="A659" s="17"/>
+      <c r="A659" s="16"/>
     </row>
     <row r="660">
-      <c r="A660" s="17"/>
+      <c r="A660" s="16"/>
     </row>
     <row r="661">
-      <c r="A661" s="17"/>
+      <c r="A661" s="16"/>
     </row>
     <row r="662">
-      <c r="A662" s="17"/>
+      <c r="A662" s="16"/>
     </row>
     <row r="663">
-      <c r="A663" s="17"/>
+      <c r="A663" s="16"/>
     </row>
     <row r="664">
-      <c r="A664" s="17"/>
+      <c r="A664" s="16"/>
     </row>
     <row r="665">
-      <c r="A665" s="17"/>
+      <c r="A665" s="16"/>
     </row>
     <row r="666">
-      <c r="A666" s="17"/>
+      <c r="A666" s="16"/>
     </row>
     <row r="667">
-      <c r="A667" s="17"/>
+      <c r="A667" s="16"/>
     </row>
     <row r="668">
-      <c r="A668" s="17"/>
+      <c r="A668" s="16"/>
     </row>
     <row r="669">
-      <c r="A669" s="17"/>
+      <c r="A669" s="16"/>
     </row>
     <row r="670">
-      <c r="A670" s="17"/>
+      <c r="A670" s="16"/>
     </row>
     <row r="671">
-      <c r="A671" s="17"/>
+      <c r="A671" s="16"/>
     </row>
     <row r="672">
-      <c r="A672" s="17"/>
+      <c r="A672" s="16"/>
     </row>
     <row r="673">
-      <c r="A673" s="17"/>
+      <c r="A673" s="16"/>
     </row>
     <row r="674">
-      <c r="A674" s="17"/>
+      <c r="A674" s="16"/>
     </row>
     <row r="675">
-      <c r="A675" s="17"/>
+      <c r="A675" s="16"/>
     </row>
     <row r="676">
-      <c r="A676" s="17"/>
+      <c r="A676" s="16"/>
     </row>
     <row r="677">
-      <c r="A677" s="17"/>
+      <c r="A677" s="16"/>
     </row>
     <row r="678">
-      <c r="A678" s="17"/>
+      <c r="A678" s="16"/>
     </row>
     <row r="679">
-      <c r="A679" s="17"/>
+      <c r="A679" s="16"/>
     </row>
     <row r="680">
-      <c r="A680" s="17"/>
+      <c r="A680" s="16"/>
     </row>
     <row r="681">
-      <c r="A681" s="17"/>
+      <c r="A681" s="16"/>
     </row>
     <row r="682">
-      <c r="A682" s="17"/>
+      <c r="A682" s="16"/>
     </row>
     <row r="683">
-      <c r="A683" s="17"/>
+      <c r="A683" s="16"/>
     </row>
     <row r="684">
-      <c r="A684" s="17"/>
+      <c r="A684" s="16"/>
     </row>
     <row r="685">
-      <c r="A685" s="17"/>
+      <c r="A685" s="16"/>
     </row>
     <row r="686">
-      <c r="A686" s="17"/>
+      <c r="A686" s="16"/>
     </row>
     <row r="687">
-      <c r="A687" s="17"/>
+      <c r="A687" s="16"/>
     </row>
     <row r="688">
-      <c r="A688" s="17"/>
+      <c r="A688" s="16"/>
     </row>
     <row r="689">
-      <c r="A689" s="17"/>
+      <c r="A689" s="16"/>
     </row>
     <row r="690">
-      <c r="A690" s="17"/>
+      <c r="A690" s="16"/>
     </row>
     <row r="691">
-      <c r="A691" s="17"/>
+      <c r="A691" s="16"/>
     </row>
     <row r="692">
-      <c r="A692" s="17"/>
+      <c r="A692" s="16"/>
     </row>
     <row r="693">
-      <c r="A693" s="17"/>
+      <c r="A693" s="16"/>
     </row>
     <row r="694">
-      <c r="A694" s="17"/>
+      <c r="A694" s="16"/>
     </row>
     <row r="695">
-      <c r="A695" s="17"/>
+      <c r="A695" s="16"/>
     </row>
     <row r="696">
-      <c r="A696" s="17"/>
+      <c r="A696" s="16"/>
     </row>
     <row r="697">
-      <c r="A697" s="17"/>
+      <c r="A697" s="16"/>
     </row>
     <row r="698">
-      <c r="A698" s="17"/>
+      <c r="A698" s="16"/>
     </row>
     <row r="699">
-      <c r="A699" s="17"/>
+      <c r="A699" s="16"/>
     </row>
     <row r="700">
-      <c r="A700" s="17"/>
+      <c r="A700" s="16"/>
     </row>
     <row r="701">
-      <c r="A701" s="17"/>
+      <c r="A701" s="16"/>
     </row>
     <row r="702">
-      <c r="A702" s="17"/>
+      <c r="A702" s="16"/>
     </row>
     <row r="703">
-      <c r="A703" s="17"/>
+      <c r="A703" s="16"/>
     </row>
     <row r="704">
-      <c r="A704" s="17"/>
+      <c r="A704" s="16"/>
     </row>
     <row r="705">
-      <c r="A705" s="17"/>
+      <c r="A705" s="16"/>
     </row>
     <row r="706">
-      <c r="A706" s="17"/>
+      <c r="A706" s="16"/>
     </row>
     <row r="707">
-      <c r="A707" s="17"/>
+      <c r="A707" s="16"/>
     </row>
     <row r="708">
-      <c r="A708" s="17"/>
+      <c r="A708" s="16"/>
     </row>
     <row r="709">
-      <c r="A709" s="17"/>
+      <c r="A709" s="16"/>
     </row>
     <row r="710">
-      <c r="A710" s="17"/>
+      <c r="A710" s="16"/>
     </row>
     <row r="711">
-      <c r="A711" s="17"/>
+      <c r="A711" s="16"/>
     </row>
     <row r="712">
-      <c r="A712" s="17"/>
+      <c r="A712" s="16"/>
     </row>
     <row r="713">
-      <c r="A713" s="17"/>
+      <c r="A713" s="16"/>
     </row>
     <row r="714">
-      <c r="A714" s="17"/>
+      <c r="A714" s="16"/>
     </row>
     <row r="715">
-      <c r="A715" s="17"/>
+      <c r="A715" s="16"/>
     </row>
     <row r="716">
-      <c r="A716" s="17"/>
+      <c r="A716" s="16"/>
     </row>
     <row r="717">
-      <c r="A717" s="17"/>
+      <c r="A717" s="16"/>
     </row>
     <row r="718">
-      <c r="A718" s="17"/>
+      <c r="A718" s="16"/>
     </row>
     <row r="719">
-      <c r="A719" s="17"/>
+      <c r="A719" s="16"/>
     </row>
     <row r="720">
-      <c r="A720" s="17"/>
+      <c r="A720" s="16"/>
     </row>
     <row r="721">
-      <c r="A721" s="17"/>
+      <c r="A721" s="16"/>
     </row>
     <row r="722">
-      <c r="A722" s="17"/>
+      <c r="A722" s="16"/>
     </row>
     <row r="723">
-      <c r="A723" s="17"/>
+      <c r="A723" s="16"/>
     </row>
     <row r="724">
-      <c r="A724" s="17"/>
+      <c r="A724" s="16"/>
     </row>
     <row r="725">
-      <c r="A725" s="17"/>
+      <c r="A725" s="16"/>
     </row>
     <row r="726">
-      <c r="A726" s="17"/>
+      <c r="A726" s="16"/>
     </row>
     <row r="727">
-      <c r="A727" s="17"/>
+      <c r="A727" s="16"/>
     </row>
     <row r="728">
-      <c r="A728" s="17"/>
+      <c r="A728" s="16"/>
     </row>
     <row r="729">
-      <c r="A729" s="17"/>
+      <c r="A729" s="16"/>
     </row>
     <row r="730">
-      <c r="A730" s="17"/>
+      <c r="A730" s="16"/>
     </row>
     <row r="731">
-      <c r="A731" s="17"/>
+      <c r="A731" s="16"/>
     </row>
     <row r="732">
-      <c r="A732" s="17"/>
+      <c r="A732" s="16"/>
     </row>
     <row r="733">
-      <c r="A733" s="17"/>
+      <c r="A733" s="16"/>
     </row>
     <row r="734">
-      <c r="A734" s="17"/>
+      <c r="A734" s="16"/>
     </row>
     <row r="735">
-      <c r="A735" s="17"/>
+      <c r="A735" s="16"/>
     </row>
     <row r="736">
-      <c r="A736" s="17"/>
+      <c r="A736" s="16"/>
     </row>
     <row r="737">
-      <c r="A737" s="17"/>
+      <c r="A737" s="16"/>
     </row>
     <row r="738">
-      <c r="A738" s="17"/>
+      <c r="A738" s="16"/>
     </row>
     <row r="739">
-      <c r="A739" s="17"/>
+      <c r="A739" s="16"/>
     </row>
     <row r="740">
-      <c r="A740" s="17"/>
+      <c r="A740" s="16"/>
     </row>
     <row r="741">
-      <c r="A741" s="17"/>
+      <c r="A741" s="16"/>
     </row>
     <row r="742">
-      <c r="A742" s="17"/>
+      <c r="A742" s="16"/>
     </row>
     <row r="743">
-      <c r="A743" s="17"/>
+      <c r="A743" s="16"/>
     </row>
     <row r="744">
-      <c r="A744" s="17"/>
+      <c r="A744" s="16"/>
     </row>
     <row r="745">
-      <c r="A745" s="17"/>
+      <c r="A745" s="16"/>
     </row>
     <row r="746">
-      <c r="A746" s="17"/>
+      <c r="A746" s="16"/>
     </row>
     <row r="747">
-      <c r="A747" s="17"/>
+      <c r="A747" s="16"/>
     </row>
     <row r="748">
-      <c r="A748" s="17"/>
+      <c r="A748" s="16"/>
     </row>
     <row r="749">
-      <c r="A749" s="17"/>
+      <c r="A749" s="16"/>
     </row>
     <row r="750">
-      <c r="A750" s="17"/>
+      <c r="A750" s="16"/>
     </row>
     <row r="751">
-      <c r="A751" s="17"/>
+      <c r="A751" s="16"/>
     </row>
     <row r="752">
-      <c r="A752" s="17"/>
+      <c r="A752" s="16"/>
     </row>
     <row r="753">
-      <c r="A753" s="17"/>
+      <c r="A753" s="16"/>
     </row>
     <row r="754">
-      <c r="A754" s="17"/>
+      <c r="A754" s="16"/>
     </row>
     <row r="755">
-      <c r="A755" s="17"/>
+      <c r="A755" s="16"/>
     </row>
     <row r="756">
-      <c r="A756" s="17"/>
+      <c r="A756" s="16"/>
     </row>
     <row r="757">
-      <c r="A757" s="17"/>
+      <c r="A757" s="16"/>
     </row>
     <row r="758">
-      <c r="A758" s="17"/>
+      <c r="A758" s="16"/>
     </row>
     <row r="759">
-      <c r="A759" s="17"/>
+      <c r="A759" s="16"/>
     </row>
     <row r="760">
-      <c r="A760" s="17"/>
+      <c r="A760" s="16"/>
     </row>
     <row r="761">
-      <c r="A761" s="17"/>
+      <c r="A761" s="16"/>
     </row>
     <row r="762">
-      <c r="A762" s="17"/>
+      <c r="A762" s="16"/>
     </row>
     <row r="763">
-      <c r="A763" s="17"/>
+      <c r="A763" s="16"/>
     </row>
     <row r="764">
-      <c r="A764" s="17"/>
+      <c r="A764" s="16"/>
     </row>
     <row r="765">
-      <c r="A765" s="17"/>
+      <c r="A765" s="16"/>
     </row>
     <row r="766">
-      <c r="A766" s="17"/>
+      <c r="A766" s="16"/>
     </row>
     <row r="767">
-      <c r="A767" s="17"/>
+      <c r="A767" s="16"/>
     </row>
     <row r="768">
-      <c r="A768" s="17"/>
+      <c r="A768" s="16"/>
     </row>
     <row r="769">
-      <c r="A769" s="17"/>
+      <c r="A769" s="16"/>
     </row>
     <row r="770">
-      <c r="A770" s="17"/>
+      <c r="A770" s="16"/>
     </row>
     <row r="771">
-      <c r="A771" s="17"/>
+      <c r="A771" s="16"/>
     </row>
     <row r="772">
-      <c r="A772" s="17"/>
+      <c r="A772" s="16"/>
     </row>
     <row r="773">
-      <c r="A773" s="17"/>
+      <c r="A773" s="16"/>
     </row>
     <row r="774">
-      <c r="A774" s="17"/>
+      <c r="A774" s="16"/>
     </row>
     <row r="775">
-      <c r="A775" s="17"/>
+      <c r="A775" s="16"/>
     </row>
     <row r="776">
-      <c r="A776" s="17"/>
+      <c r="A776" s="16"/>
     </row>
     <row r="777">
-      <c r="A777" s="17"/>
+      <c r="A777" s="16"/>
     </row>
     <row r="778">
-      <c r="A778" s="17"/>
+      <c r="A778" s="16"/>
     </row>
     <row r="779">
-      <c r="A779" s="17"/>
+      <c r="A779" s="16"/>
     </row>
     <row r="780">
-      <c r="A780" s="17"/>
+      <c r="A780" s="16"/>
     </row>
     <row r="781">
-      <c r="A781" s="17"/>
+      <c r="A781" s="16"/>
     </row>
     <row r="782">
-      <c r="A782" s="17"/>
+      <c r="A782" s="16"/>
     </row>
     <row r="783">
-      <c r="A783" s="17"/>
+      <c r="A783" s="16"/>
     </row>
     <row r="784">
-      <c r="A784" s="17"/>
+      <c r="A784" s="16"/>
     </row>
     <row r="785">
-      <c r="A785" s="17"/>
+      <c r="A785" s="16"/>
     </row>
     <row r="786">
-      <c r="A786" s="17"/>
+      <c r="A786" s="16"/>
     </row>
     <row r="787">
-      <c r="A787" s="17"/>
+      <c r="A787" s="16"/>
     </row>
     <row r="788">
-      <c r="A788" s="17"/>
+      <c r="A788" s="16"/>
     </row>
     <row r="789">
-      <c r="A789" s="17"/>
+      <c r="A789" s="16"/>
     </row>
     <row r="790">
-      <c r="A790" s="17"/>
+      <c r="A790" s="16"/>
     </row>
     <row r="791">
-      <c r="A791" s="17"/>
+      <c r="A791" s="16"/>
     </row>
     <row r="792">
-      <c r="A792" s="17"/>
+      <c r="A792" s="16"/>
     </row>
     <row r="793">
-      <c r="A793" s="17"/>
+      <c r="A793" s="16"/>
     </row>
     <row r="794">
-      <c r="A794" s="17"/>
+      <c r="A794" s="16"/>
     </row>
     <row r="795">
-      <c r="A795" s="17"/>
+      <c r="A795" s="16"/>
     </row>
     <row r="796">
-      <c r="A796" s="17"/>
+      <c r="A796" s="16"/>
     </row>
     <row r="797">
-      <c r="A797" s="17"/>
+      <c r="A797" s="16"/>
     </row>
     <row r="798">
-      <c r="A798" s="17"/>
+      <c r="A798" s="16"/>
     </row>
     <row r="799">
-      <c r="A799" s="17"/>
+      <c r="A799" s="16"/>
     </row>
     <row r="800">
-      <c r="A800" s="17"/>
+      <c r="A800" s="16"/>
     </row>
     <row r="801">
-      <c r="A801" s="17"/>
+      <c r="A801" s="16"/>
     </row>
     <row r="802">
-      <c r="A802" s="17"/>
+      <c r="A802" s="16"/>
     </row>
     <row r="803">
-      <c r="A803" s="17"/>
+      <c r="A803" s="16"/>
     </row>
     <row r="804">
-      <c r="A804" s="17"/>
+      <c r="A804" s="16"/>
     </row>
     <row r="805">
-      <c r="A805" s="17"/>
+      <c r="A805" s="16"/>
     </row>
     <row r="806">
-      <c r="A806" s="17"/>
+      <c r="A806" s="16"/>
     </row>
     <row r="807">
-      <c r="A807" s="17"/>
+      <c r="A807" s="16"/>
     </row>
     <row r="808">
-      <c r="A808" s="17"/>
+      <c r="A808" s="16"/>
     </row>
     <row r="809">
-      <c r="A809" s="17"/>
+      <c r="A809" s="16"/>
     </row>
     <row r="810">
-      <c r="A810" s="17"/>
+      <c r="A810" s="16"/>
     </row>
     <row r="811">
-      <c r="A811" s="17"/>
+      <c r="A811" s="16"/>
     </row>
     <row r="812">
-      <c r="A812" s="17"/>
+      <c r="A812" s="16"/>
     </row>
     <row r="813">
-      <c r="A813" s="17"/>
+      <c r="A813" s="16"/>
     </row>
     <row r="814">
-      <c r="A814" s="17"/>
+      <c r="A814" s="16"/>
     </row>
     <row r="815">
-      <c r="A815" s="17"/>
+      <c r="A815" s="16"/>
     </row>
     <row r="816">
-      <c r="A816" s="17"/>
+      <c r="A816" s="16"/>
     </row>
     <row r="817">
-      <c r="A817" s="17"/>
+      <c r="A817" s="16"/>
     </row>
     <row r="818">
-      <c r="A818" s="17"/>
+      <c r="A818" s="16"/>
     </row>
     <row r="819">
-      <c r="A819" s="17"/>
+      <c r="A819" s="16"/>
     </row>
     <row r="820">
-      <c r="A820" s="17"/>
+      <c r="A820" s="16"/>
     </row>
     <row r="821">
-      <c r="A821" s="17"/>
+      <c r="A821" s="16"/>
     </row>
     <row r="822">
-      <c r="A822" s="17"/>
+      <c r="A822" s="16"/>
     </row>
     <row r="823">
-      <c r="A823" s="17"/>
+      <c r="A823" s="16"/>
     </row>
     <row r="824">
-      <c r="A824" s="17"/>
+      <c r="A824" s="16"/>
     </row>
     <row r="825">
-      <c r="A825" s="17"/>
+      <c r="A825" s="16"/>
     </row>
     <row r="826">
-      <c r="A826" s="17"/>
+      <c r="A826" s="16"/>
     </row>
     <row r="827">
-      <c r="A827" s="17"/>
+      <c r="A827" s="16"/>
     </row>
     <row r="828">
-      <c r="A828" s="17"/>
+      <c r="A828" s="16"/>
     </row>
     <row r="829">
-      <c r="A829" s="17"/>
+      <c r="A829" s="16"/>
     </row>
     <row r="830">
-      <c r="A830" s="17"/>
+      <c r="A830" s="16"/>
     </row>
     <row r="831">
-      <c r="A831" s="17"/>
+      <c r="A831" s="16"/>
     </row>
     <row r="832">
-      <c r="A832" s="17"/>
+      <c r="A832" s="16"/>
     </row>
     <row r="833">
-      <c r="A833" s="17"/>
+      <c r="A833" s="16"/>
     </row>
     <row r="834">
-      <c r="A834" s="17"/>
+      <c r="A834" s="16"/>
     </row>
     <row r="835">
-      <c r="A835" s="17"/>
+      <c r="A835" s="16"/>
     </row>
     <row r="836">
-      <c r="A836" s="17"/>
+      <c r="A836" s="16"/>
     </row>
     <row r="837">
-      <c r="A837" s="17"/>
+      <c r="A837" s="16"/>
     </row>
     <row r="838">
-      <c r="A838" s="17"/>
+      <c r="A838" s="16"/>
     </row>
     <row r="839">
-      <c r="A839" s="17"/>
+      <c r="A839" s="16"/>
     </row>
     <row r="840">
-      <c r="A840" s="17"/>
+      <c r="A840" s="16"/>
     </row>
     <row r="841">
-      <c r="A841" s="17"/>
+      <c r="A841" s="16"/>
     </row>
     <row r="842">
-      <c r="A842" s="17"/>
+      <c r="A842" s="16"/>
     </row>
     <row r="843">
-      <c r="A843" s="17"/>
+      <c r="A843" s="16"/>
     </row>
     <row r="844">
-      <c r="A844" s="17"/>
+      <c r="A844" s="16"/>
     </row>
     <row r="845">
-      <c r="A845" s="17"/>
+      <c r="A845" s="16"/>
     </row>
     <row r="846">
-      <c r="A846" s="17"/>
+      <c r="A846" s="16"/>
     </row>
     <row r="847">
-      <c r="A847" s="17"/>
+      <c r="A847" s="16"/>
     </row>
     <row r="848">
-      <c r="A848" s="17"/>
+      <c r="A848" s="16"/>
     </row>
     <row r="849">
-      <c r="A849" s="17"/>
+      <c r="A849" s="16"/>
     </row>
     <row r="850">
-      <c r="A850" s="17"/>
+      <c r="A850" s="16"/>
     </row>
     <row r="851">
-      <c r="A851" s="17"/>
+      <c r="A851" s="16"/>
     </row>
     <row r="852">
-      <c r="A852" s="17"/>
+      <c r="A852" s="16"/>
     </row>
     <row r="853">
-      <c r="A853" s="17"/>
+      <c r="A853" s="16"/>
     </row>
     <row r="854">
-      <c r="A854" s="17"/>
+      <c r="A854" s="16"/>
     </row>
     <row r="855">
-      <c r="A855" s="17"/>
+      <c r="A855" s="16"/>
     </row>
     <row r="856">
-      <c r="A856" s="17"/>
+      <c r="A856" s="16"/>
     </row>
     <row r="857">
-      <c r="A857" s="17"/>
+      <c r="A857" s="16"/>
     </row>
     <row r="858">
-      <c r="A858" s="17"/>
+      <c r="A858" s="16"/>
     </row>
     <row r="859">
-      <c r="A859" s="17"/>
+      <c r="A859" s="16"/>
     </row>
     <row r="860">
-      <c r="A860" s="17"/>
+      <c r="A860" s="16"/>
     </row>
     <row r="861">
-      <c r="A861" s="17"/>
+      <c r="A861" s="16"/>
     </row>
     <row r="862">
-      <c r="A862" s="17"/>
+      <c r="A862" s="16"/>
     </row>
     <row r="863">
-      <c r="A863" s="17"/>
+      <c r="A863" s="16"/>
     </row>
     <row r="864">
-      <c r="A864" s="17"/>
+      <c r="A864" s="16"/>
     </row>
     <row r="865">
-      <c r="A865" s="17"/>
+      <c r="A865" s="16"/>
     </row>
     <row r="866">
-      <c r="A866" s="17"/>
+      <c r="A866" s="16"/>
     </row>
     <row r="867">
-      <c r="A867" s="17"/>
+      <c r="A867" s="16"/>
     </row>
     <row r="868">
-      <c r="A868" s="17"/>
+      <c r="A868" s="16"/>
     </row>
     <row r="869">
-      <c r="A869" s="17"/>
+      <c r="A869" s="16"/>
     </row>
     <row r="870">
-      <c r="A870" s="17"/>
+      <c r="A870" s="16"/>
     </row>
     <row r="871">
-      <c r="A871" s="17"/>
+      <c r="A871" s="16"/>
     </row>
     <row r="872">
-      <c r="A872" s="17"/>
+      <c r="A872" s="16"/>
     </row>
     <row r="873">
-      <c r="A873" s="17"/>
+      <c r="A873" s="16"/>
     </row>
     <row r="874">
-      <c r="A874" s="17"/>
+      <c r="A874" s="16"/>
     </row>
     <row r="875">
-      <c r="A875" s="17"/>
+      <c r="A875" s="16"/>
     </row>
     <row r="876">
-      <c r="A876" s="17"/>
+      <c r="A876" s="16"/>
     </row>
     <row r="877">
-      <c r="A877" s="17"/>
+      <c r="A877" s="16"/>
     </row>
     <row r="878">
-      <c r="A878" s="17"/>
+      <c r="A878" s="16"/>
     </row>
     <row r="879">
-      <c r="A879" s="17"/>
+      <c r="A879" s="16"/>
     </row>
     <row r="880">
-      <c r="A880" s="17"/>
+      <c r="A880" s="16"/>
     </row>
     <row r="881">
-      <c r="A881" s="17"/>
+      <c r="A881" s="16"/>
     </row>
     <row r="882">
-      <c r="A882" s="17"/>
+      <c r="A882" s="16"/>
     </row>
     <row r="883">
-      <c r="A883" s="17"/>
+      <c r="A883" s="16"/>
     </row>
     <row r="884">
-      <c r="A884" s="17"/>
+      <c r="A884" s="16"/>
     </row>
     <row r="885">
-      <c r="A885" s="17"/>
+      <c r="A885" s="16"/>
     </row>
     <row r="886">
-      <c r="A886" s="17"/>
+      <c r="A886" s="16"/>
     </row>
     <row r="887">
-      <c r="A887" s="17"/>
+      <c r="A887" s="16"/>
     </row>
     <row r="888">
-      <c r="A888" s="17"/>
+      <c r="A888" s="16"/>
     </row>
     <row r="889">
-      <c r="A889" s="17"/>
+      <c r="A889" s="16"/>
     </row>
     <row r="890">
-      <c r="A890" s="17"/>
+      <c r="A890" s="16"/>
     </row>
     <row r="891">
-      <c r="A891" s="17"/>
+      <c r="A891" s="16"/>
     </row>
     <row r="892">
-      <c r="A892" s="17"/>
+      <c r="A892" s="16"/>
     </row>
     <row r="893">
-      <c r="A893" s="17"/>
+      <c r="A893" s="16"/>
     </row>
     <row r="894">
-      <c r="A894" s="17"/>
+      <c r="A894" s="16"/>
     </row>
     <row r="895">
-      <c r="A895" s="17"/>
+      <c r="A895" s="16"/>
     </row>
     <row r="896">
-      <c r="A896" s="17"/>
+      <c r="A896" s="16"/>
     </row>
     <row r="897">
-      <c r="A897" s="17"/>
+      <c r="A897" s="16"/>
     </row>
     <row r="898">
-      <c r="A898" s="17"/>
+      <c r="A898" s="16"/>
     </row>
     <row r="899">
-      <c r="A899" s="17"/>
+      <c r="A899" s="16"/>
     </row>
     <row r="900">
-      <c r="A900" s="17"/>
+      <c r="A900" s="16"/>
     </row>
     <row r="901">
-      <c r="A901" s="17"/>
+      <c r="A901" s="16"/>
     </row>
     <row r="902">
-      <c r="A902" s="17"/>
+      <c r="A902" s="16"/>
     </row>
     <row r="903">
-      <c r="A903" s="17"/>
+      <c r="A903" s="16"/>
     </row>
     <row r="904">
-      <c r="A904" s="17"/>
+      <c r="A904" s="16"/>
     </row>
     <row r="905">
-      <c r="A905" s="17"/>
+      <c r="A905" s="16"/>
     </row>
     <row r="906">
-      <c r="A906" s="17"/>
+      <c r="A906" s="16"/>
     </row>
     <row r="907">
-      <c r="A907" s="17"/>
+      <c r="A907" s="16"/>
     </row>
     <row r="908">
-      <c r="A908" s="17"/>
+      <c r="A908" s="16"/>
     </row>
     <row r="909">
-      <c r="A909" s="17"/>
+      <c r="A909" s="16"/>
     </row>
     <row r="910">
-      <c r="A910" s="17"/>
+      <c r="A910" s="16"/>
     </row>
     <row r="911">
-      <c r="A911" s="17"/>
+      <c r="A911" s="16"/>
     </row>
     <row r="912">
-      <c r="A912" s="17"/>
+      <c r="A912" s="16"/>
     </row>
     <row r="913">
-      <c r="A913" s="17"/>
+      <c r="A913" s="16"/>
     </row>
     <row r="914">
-      <c r="A914" s="17"/>
+      <c r="A914" s="16"/>
     </row>
     <row r="915">
-      <c r="A915" s="17"/>
+      <c r="A915" s="16"/>
     </row>
     <row r="916">
-      <c r="A916" s="17"/>
+      <c r="A916" s="16"/>
     </row>
     <row r="917">
-      <c r="A917" s="17"/>
+      <c r="A917" s="16"/>
     </row>
     <row r="918">
-      <c r="A918" s="17"/>
+      <c r="A918" s="16"/>
     </row>
     <row r="919">
-      <c r="A919" s="17"/>
+      <c r="A919" s="16"/>
     </row>
     <row r="920">
-      <c r="A920" s="17"/>
+      <c r="A920" s="16"/>
     </row>
     <row r="921">
-      <c r="A921" s="17"/>
+      <c r="A921" s="16"/>
     </row>
     <row r="922">
-      <c r="A922" s="17"/>
+      <c r="A922" s="16"/>
     </row>
     <row r="923">
-      <c r="A923" s="17"/>
+      <c r="A923" s="16"/>
     </row>
     <row r="924">
-      <c r="A924" s="17"/>
+      <c r="A924" s="16"/>
     </row>
     <row r="925">
-      <c r="A925" s="17"/>
+      <c r="A925" s="16"/>
     </row>
     <row r="926">
-      <c r="A926" s="17"/>
+      <c r="A926" s="16"/>
     </row>
     <row r="927">
-      <c r="A927" s="17"/>
+      <c r="A927" s="16"/>
     </row>
     <row r="928">
-      <c r="A928" s="17"/>
+      <c r="A928" s="16"/>
     </row>
     <row r="929">
-      <c r="A929" s="17"/>
+      <c r="A929" s="16"/>
     </row>
     <row r="930">
-      <c r="A930" s="17"/>
+      <c r="A930" s="16"/>
     </row>
     <row r="931">
-      <c r="A931" s="17"/>
+      <c r="A931" s="16"/>
     </row>
     <row r="932">
-      <c r="A932" s="17"/>
+      <c r="A932" s="16"/>
     </row>
     <row r="933">
-      <c r="A933" s="17"/>
+      <c r="A933" s="16"/>
     </row>
     <row r="934">
-      <c r="A934" s="17"/>
+      <c r="A934" s="16"/>
     </row>
     <row r="935">
-      <c r="A935" s="17"/>
+      <c r="A935" s="16"/>
     </row>
     <row r="936">
-      <c r="A936" s="17"/>
+      <c r="A936" s="16"/>
     </row>
     <row r="937">
-      <c r="A937" s="17"/>
+      <c r="A937" s="16"/>
     </row>
     <row r="938">
-      <c r="A938" s="17"/>
+      <c r="A938" s="16"/>
     </row>
     <row r="939">
-      <c r="A939" s="17"/>
+      <c r="A939" s="16"/>
     </row>
     <row r="940">
-      <c r="A940" s="17"/>
+      <c r="A940" s="16"/>
     </row>
     <row r="941">
-      <c r="A941" s="17"/>
+      <c r="A941" s="16"/>
     </row>
     <row r="942">
-      <c r="A942" s="17"/>
+      <c r="A942" s="16"/>
     </row>
     <row r="943">
-      <c r="A943" s="17"/>
+      <c r="A943" s="16"/>
     </row>
     <row r="944">
-      <c r="A944" s="17"/>
+      <c r="A944" s="16"/>
     </row>
     <row r="945">
-      <c r="A945" s="17"/>
+      <c r="A945" s="16"/>
     </row>
     <row r="946">
-      <c r="A946" s="17"/>
+      <c r="A946" s="16"/>
     </row>
     <row r="947">
-      <c r="A947" s="17"/>
+      <c r="A947" s="16"/>
     </row>
     <row r="948">
-      <c r="A948" s="17"/>
+      <c r="A948" s="16"/>
     </row>
     <row r="949">
-      <c r="A949" s="17"/>
+      <c r="A949" s="16"/>
     </row>
     <row r="950">
-      <c r="A950" s="17"/>
+      <c r="A950" s="16"/>
     </row>
     <row r="951">
-      <c r="A951" s="17"/>
+      <c r="A951" s="16"/>
     </row>
     <row r="952">
-      <c r="A952" s="17"/>
+      <c r="A952" s="16"/>
     </row>
     <row r="953">
-      <c r="A953" s="17"/>
+      <c r="A953" s="16"/>
     </row>
     <row r="954">
-      <c r="A954" s="17"/>
+      <c r="A954" s="16"/>
     </row>
     <row r="955">
-      <c r="A955" s="17"/>
+      <c r="A955" s="16"/>
     </row>
     <row r="956">
-      <c r="A956" s="17"/>
+      <c r="A956" s="16"/>
     </row>
     <row r="957">
-      <c r="A957" s="17"/>
+      <c r="A957" s="16"/>
     </row>
     <row r="958">
-      <c r="A958" s="17"/>
+      <c r="A958" s="16"/>
     </row>
     <row r="959">
-      <c r="A959" s="17"/>
+      <c r="A959" s="16"/>
     </row>
     <row r="960">
-      <c r="A960" s="17"/>
+      <c r="A960" s="16"/>
     </row>
     <row r="961">
-      <c r="A961" s="17"/>
+      <c r="A961" s="16"/>
     </row>
     <row r="962">
-      <c r="A962" s="17"/>
+      <c r="A962" s="16"/>
     </row>
     <row r="963">
-      <c r="A963" s="17"/>
+      <c r="A963" s="16"/>
     </row>
     <row r="964">
-      <c r="A964" s="17"/>
+      <c r="A964" s="16"/>
     </row>
     <row r="965">
-      <c r="A965" s="17"/>
+      <c r="A965" s="16"/>
     </row>
     <row r="966">
-      <c r="A966" s="17"/>
+      <c r="A966" s="16"/>
     </row>
     <row r="967">
-      <c r="A967" s="17"/>
+      <c r="A967" s="16"/>
     </row>
     <row r="968">
-      <c r="A968" s="17"/>
+      <c r="A968" s="16"/>
     </row>
     <row r="969">
-      <c r="A969" s="17"/>
+      <c r="A969" s="16"/>
     </row>
     <row r="970">
-      <c r="A970" s="17"/>
+      <c r="A970" s="16"/>
     </row>
     <row r="971">
-      <c r="A971" s="17"/>
+      <c r="A971" s="16"/>
     </row>
     <row r="972">
-      <c r="A972" s="17"/>
+      <c r="A972" s="16"/>
     </row>
     <row r="973">
-      <c r="A973" s="17"/>
+      <c r="A973" s="16"/>
     </row>
     <row r="974">
-      <c r="A974" s="17"/>
+      <c r="A974" s="16"/>
     </row>
     <row r="975">
-      <c r="A975" s="17"/>
+      <c r="A975" s="16"/>
     </row>
     <row r="976">
-      <c r="A976" s="17"/>
+      <c r="A976" s="16"/>
     </row>
     <row r="977">
-      <c r="A977" s="17"/>
+      <c r="A977" s="16"/>
     </row>
     <row r="978">
-      <c r="A978" s="17"/>
+      <c r="A978" s="16"/>
     </row>
     <row r="979">
-      <c r="A979" s="17"/>
+      <c r="A979" s="16"/>
     </row>
     <row r="980">
-      <c r="A980" s="17"/>
+      <c r="A980" s="16"/>
     </row>
     <row r="981">
-      <c r="A981" s="17"/>
+      <c r="A981" s="16"/>
     </row>
     <row r="982">
-      <c r="A982" s="17"/>
+      <c r="A982" s="16"/>
     </row>
     <row r="983">
-      <c r="A983" s="17"/>
+      <c r="A983" s="16"/>
     </row>
     <row r="984">
-      <c r="A984" s="17"/>
+      <c r="A984" s="16"/>
     </row>
     <row r="985">
-      <c r="A985" s="17"/>
+      <c r="A985" s="16"/>
     </row>
     <row r="986">
-      <c r="A986" s="17"/>
+      <c r="A986" s="16"/>
     </row>
     <row r="987">
-      <c r="A987" s="17"/>
+      <c r="A987" s="16"/>
     </row>
     <row r="988">
-      <c r="A988" s="17"/>
+      <c r="A988" s="16"/>
     </row>
     <row r="989">
-      <c r="A989" s="17"/>
+      <c r="A989" s="16"/>
     </row>
     <row r="990">
-      <c r="A990" s="17"/>
+      <c r="A990" s="16"/>
     </row>
     <row r="991">
-      <c r="A991" s="17"/>
+      <c r="A991" s="16"/>
     </row>
     <row r="992">
-      <c r="A992" s="17"/>
+      <c r="A992" s="16"/>
     </row>
     <row r="993">
-      <c r="A993" s="17"/>
+      <c r="A993" s="16"/>
     </row>
     <row r="994">
-      <c r="A994" s="17"/>
+      <c r="A994" s="16"/>
     </row>
     <row r="995">
-      <c r="A995" s="17"/>
+      <c r="A995" s="16"/>
     </row>
     <row r="996">
-      <c r="A996" s="17"/>
+      <c r="A996" s="16"/>
     </row>
     <row r="997">
-      <c r="A997" s="17"/>
+      <c r="A997" s="16"/>
     </row>
     <row r="998">
-      <c r="A998" s="17"/>
+      <c r="A998" s="16"/>
     </row>
     <row r="999">
-      <c r="A999" s="17"/>
+      <c r="A999" s="16"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="17"/>
+      <c r="A1000" s="16"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="17"/>
+      <c r="A1001" s="16"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="17"/>
+      <c r="A1002" s="16"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="17"/>
+      <c r="A1003" s="16"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="17"/>
+      <c r="A1004" s="16"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="17"/>
+      <c r="A1005" s="16"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="17"/>
+      <c r="A1006" s="16"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="17"/>
+      <c r="A1007" s="16"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="17"/>
+      <c r="A1008" s="16"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="17"/>
+      <c r="A1009" s="16"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="17"/>
+      <c r="A1010" s="16"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="17"/>
+      <c r="A1011" s="16"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="17"/>
+      <c r="A1012" s="16"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="17"/>
+      <c r="A1013" s="16"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="17"/>
+      <c r="A1014" s="16"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="17"/>
+      <c r="A1015" s="16"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="17"/>
+      <c r="A1016" s="16"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="17"/>
+      <c r="A1017" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C259">
+  <conditionalFormatting sqref="C3:C260">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Select">
       <formula>NOT(ISERROR(SEARCH(("Select"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C3:C259">
+    <dataValidation type="list" allowBlank="1" sqref="C3:C260">
       <formula1>Functions!$A$1:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -7554,238 +7564,222 @@
     <hyperlink r:id="rId3" location="Meta" ref="D4"/>
     <hyperlink r:id="rId4" location="uri" ref="D5"/>
     <hyperlink r:id="rId5" location="code" ref="D6"/>
-    <hyperlink r:id="rId6" ref="E6"/>
-    <hyperlink r:id="rId7" location="Narrative" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" location="Extension" ref="D12"/>
-    <hyperlink r:id="rId10" location="identifier" ref="D13"/>
-    <hyperlink r:id="rId11" location="code" ref="D14"/>
-    <hyperlink r:id="rId12" location="codeableconcept" ref="D15"/>
-    <hyperlink r:id="rId13" ref="E15"/>
-    <hyperlink r:id="rId14" location="coding" ref="D16"/>
-    <hyperlink r:id="rId15" location="uri" ref="D17"/>
-    <hyperlink r:id="rId16" location="string" ref="D18"/>
-    <hyperlink r:id="rId17" location="code" ref="D19"/>
-    <hyperlink r:id="rId18" location="string" ref="D20"/>
-    <hyperlink r:id="rId19" location="boolean" ref="D21"/>
-    <hyperlink r:id="rId20" location="string" ref="D22"/>
-    <hyperlink r:id="rId21" location="uri" ref="D23"/>
-    <hyperlink r:id="rId22" location="string" ref="D24"/>
-    <hyperlink r:id="rId23" location="period" ref="D25"/>
-    <hyperlink r:id="rId24" location="datetime" ref="D26"/>
-    <hyperlink r:id="rId25" location="datetime" ref="D27"/>
-    <hyperlink r:id="rId26" location="string" ref="D30"/>
-    <hyperlink r:id="rId27" location="identifier" ref="D31"/>
-    <hyperlink r:id="rId28" location="string" ref="D32"/>
-    <hyperlink r:id="rId29" location="code" ref="D33"/>
-    <hyperlink r:id="rId30" ref="D34"/>
-    <hyperlink r:id="rId31" location="Extension" ref="D35"/>
-    <hyperlink r:id="rId32" location="code" ref="D36"/>
-    <hyperlink r:id="rId33" location="period" ref="D37"/>
-    <hyperlink r:id="rId34" location="datetime" ref="D38"/>
-    <hyperlink r:id="rId35" location="datetime" ref="D39"/>
-    <hyperlink r:id="rId36" location="coding" ref="D40"/>
-    <hyperlink r:id="rId37" ref="E40"/>
-    <hyperlink r:id="rId38" location="uri" ref="D41"/>
-    <hyperlink r:id="rId39" location="string" ref="D42"/>
-    <hyperlink r:id="rId40" location="code" ref="D43"/>
-    <hyperlink r:id="rId41" location="string" ref="D44"/>
-    <hyperlink r:id="rId42" location="boolean" ref="D45"/>
-    <hyperlink r:id="rId43" ref="D46"/>
-    <hyperlink r:id="rId44" location="Extension" ref="D47"/>
-    <hyperlink r:id="rId45" location="coding" ref="D48"/>
-    <hyperlink r:id="rId46" ref="E48"/>
-    <hyperlink r:id="rId47" location="uri" ref="D49"/>
-    <hyperlink r:id="rId48" location="string" ref="D50"/>
-    <hyperlink r:id="rId49" location="code" ref="D51"/>
-    <hyperlink r:id="rId50" location="string" ref="D52"/>
-    <hyperlink r:id="rId51" location="boolean" ref="D53"/>
-    <hyperlink r:id="rId52" location="period" ref="D54"/>
-    <hyperlink r:id="rId53" location="datetime" ref="D55"/>
-    <hyperlink r:id="rId54" location="datetime" ref="D56"/>
-    <hyperlink r:id="rId55" location="codeableconcept" ref="D57"/>
-    <hyperlink r:id="rId56" ref="E57"/>
-    <hyperlink r:id="rId57" location="coding" ref="D58"/>
-    <hyperlink r:id="rId58" location="coding" ref="D59"/>
-    <hyperlink r:id="rId59" ref="E59"/>
-    <hyperlink r:id="rId60" location="uri" ref="D61"/>
-    <hyperlink r:id="rId61" location="string" ref="D62"/>
-    <hyperlink r:id="rId62" location="code" ref="D63"/>
-    <hyperlink r:id="rId63" location="string" ref="D64"/>
-    <hyperlink r:id="rId64" location="boolean" ref="D65"/>
-    <hyperlink r:id="rId65" location="string" ref="D66"/>
-    <hyperlink r:id="rId66" location="codeableconcept" ref="D67"/>
-    <hyperlink r:id="rId67" ref="E67"/>
-    <hyperlink r:id="rId68" location="coding" ref="D68"/>
-    <hyperlink r:id="rId69" location="uri" ref="D69"/>
-    <hyperlink r:id="rId70" location="string" ref="D70"/>
-    <hyperlink r:id="rId71" location="code" ref="D71"/>
-    <hyperlink r:id="rId72" location="string" ref="D72"/>
-    <hyperlink r:id="rId73" location="boolean" ref="D73"/>
-    <hyperlink r:id="rId74" location="string" ref="D74"/>
-    <hyperlink r:id="rId75" location="string" ref="D78"/>
-    <hyperlink r:id="rId76" location="identifier" ref="D79"/>
-    <hyperlink r:id="rId77" location="string" ref="D80"/>
-    <hyperlink r:id="rId78" location="string" ref="D83"/>
-    <hyperlink r:id="rId79" location="identifier" ref="D84"/>
-    <hyperlink r:id="rId80" location="string" ref="D85"/>
-    <hyperlink r:id="rId81" location="string" ref="D88"/>
-    <hyperlink r:id="rId82" location="identifier" ref="D89"/>
-    <hyperlink r:id="rId83" location="string" ref="D90"/>
-    <hyperlink r:id="rId84" ref="D91"/>
-    <hyperlink r:id="rId85" location="Extension" ref="D92"/>
-    <hyperlink r:id="rId86" location="codeableconcept" ref="D93"/>
-    <hyperlink r:id="rId87" ref="E93"/>
-    <hyperlink r:id="rId88" location="coding" ref="D94"/>
-    <hyperlink r:id="rId89" location="uri" ref="D95"/>
-    <hyperlink r:id="rId90" location="string" ref="D96"/>
-    <hyperlink r:id="rId91" location="code" ref="D97"/>
-    <hyperlink r:id="rId92" location="string" ref="D98"/>
-    <hyperlink r:id="rId93" location="boolean" ref="D99"/>
-    <hyperlink r:id="rId94" location="string" ref="D100"/>
-    <hyperlink r:id="rId95" location="period" ref="D101"/>
-    <hyperlink r:id="rId96" location="datetime" ref="D102"/>
-    <hyperlink r:id="rId97" location="datetime" ref="D103"/>
-    <hyperlink r:id="rId98" location="string" ref="D107"/>
-    <hyperlink r:id="rId99" location="identifier" ref="D108"/>
-    <hyperlink r:id="rId100" location="string" ref="D109"/>
-    <hyperlink r:id="rId101" location="string" ref="D112"/>
-    <hyperlink r:id="rId102" location="identifier" ref="D113"/>
-    <hyperlink r:id="rId103" location="string" ref="D114"/>
-    <hyperlink r:id="rId104" location="period" ref="D115"/>
-    <hyperlink r:id="rId105" location="datetime" ref="D116"/>
-    <hyperlink r:id="rId106" location="datetime" ref="D117"/>
-    <hyperlink r:id="rId107" location="duration" ref="D118"/>
-    <hyperlink r:id="rId108" location="decimal" ref="D119"/>
-    <hyperlink r:id="rId109" location="code" ref="D120"/>
-    <hyperlink r:id="rId110" location="string" ref="D121"/>
-    <hyperlink r:id="rId111" location="uri" ref="D122"/>
-    <hyperlink r:id="rId112" location="code" ref="D123"/>
-    <hyperlink r:id="rId113" location="codeableconcept" ref="D124"/>
-    <hyperlink r:id="rId114" ref="E124"/>
-    <hyperlink r:id="rId115" location="coding" ref="D125"/>
-    <hyperlink r:id="rId116" location="coding" ref="D126"/>
-    <hyperlink r:id="rId117" location="uri" ref="D128"/>
-    <hyperlink r:id="rId118" location="string" ref="D129"/>
-    <hyperlink r:id="rId119" location="code" ref="D130"/>
-    <hyperlink r:id="rId120" location="string" ref="D131"/>
-    <hyperlink r:id="rId121" location="boolean" ref="D132"/>
-    <hyperlink r:id="rId122" location="string" ref="D133"/>
-    <hyperlink r:id="rId123" ref="D134"/>
-    <hyperlink r:id="rId124" location="Extension" ref="D135"/>
-    <hyperlink r:id="rId125" location="string" ref="D139"/>
-    <hyperlink r:id="rId126" location="identifier" ref="D140"/>
-    <hyperlink r:id="rId127" location="string" ref="D141"/>
-    <hyperlink r:id="rId128" location="codeableconcept" ref="D142"/>
-    <hyperlink r:id="rId129" ref="E142"/>
-    <hyperlink r:id="rId130" location="coding" ref="D143"/>
-    <hyperlink r:id="rId131" location="uri" ref="D144"/>
-    <hyperlink r:id="rId132" location="string" ref="D145"/>
-    <hyperlink r:id="rId133" location="code" ref="D146"/>
-    <hyperlink r:id="rId134" location="string" ref="D147"/>
-    <hyperlink r:id="rId135" location="boolean" ref="D148"/>
-    <hyperlink r:id="rId136" location="string" ref="D149"/>
-    <hyperlink r:id="rId137" location="positiveint" ref="D150"/>
-    <hyperlink r:id="rId138" location="string" ref="D153"/>
-    <hyperlink r:id="rId139" location="identifier" ref="D154"/>
-    <hyperlink r:id="rId140" location="string" ref="D155"/>
-    <hyperlink r:id="rId141" ref="D156"/>
-    <hyperlink r:id="rId142" location="identifier" ref="D160"/>
-    <hyperlink r:id="rId143" location="code" ref="D161"/>
-    <hyperlink r:id="rId144" location="codeableconcept" ref="D162"/>
-    <hyperlink r:id="rId145" ref="E162"/>
-    <hyperlink r:id="rId146" location="coding" ref="D163"/>
-    <hyperlink r:id="rId147" location="uri" ref="D164"/>
-    <hyperlink r:id="rId148" location="string" ref="D165"/>
-    <hyperlink r:id="rId149" location="code" ref="D166"/>
-    <hyperlink r:id="rId150" location="string" ref="D167"/>
-    <hyperlink r:id="rId151" location="boolean" ref="D168"/>
-    <hyperlink r:id="rId152" location="string" ref="D169"/>
-    <hyperlink r:id="rId153" location="uri" ref="D170"/>
-    <hyperlink r:id="rId154" location="string" ref="D171"/>
-    <hyperlink r:id="rId155" location="period" ref="D172"/>
-    <hyperlink r:id="rId156" location="datetime" ref="D173"/>
-    <hyperlink r:id="rId157" location="datetime" ref="D174"/>
-    <hyperlink r:id="rId158" location="string" ref="D177"/>
-    <hyperlink r:id="rId159" location="identifier" ref="D178"/>
-    <hyperlink r:id="rId160" location="string" ref="D179"/>
-    <hyperlink r:id="rId161" location="string" ref="D182"/>
-    <hyperlink r:id="rId162" location="identifier" ref="D183"/>
-    <hyperlink r:id="rId163" location="string" ref="D184"/>
-    <hyperlink r:id="rId164" location="codeableconcept" ref="D185"/>
-    <hyperlink r:id="rId165" ref="E185"/>
-    <hyperlink r:id="rId166" location="coding" ref="D186"/>
-    <hyperlink r:id="rId167" location="uri" ref="D187"/>
-    <hyperlink r:id="rId168" location="string" ref="D188"/>
-    <hyperlink r:id="rId169" location="code" ref="D189"/>
-    <hyperlink r:id="rId170" location="string" ref="D190"/>
-    <hyperlink r:id="rId171" location="boolean" ref="D191"/>
-    <hyperlink r:id="rId172" location="string" ref="D192"/>
-    <hyperlink r:id="rId173" location="codeableconcept" ref="D193"/>
-    <hyperlink r:id="rId174" ref="E193"/>
-    <hyperlink r:id="rId175" location="coding" ref="D194"/>
-    <hyperlink r:id="rId176" location="coding" ref="D195"/>
-    <hyperlink r:id="rId177" location="uri" ref="D197"/>
-    <hyperlink r:id="rId178" location="string" ref="D198"/>
-    <hyperlink r:id="rId179" location="code" ref="D199"/>
-    <hyperlink r:id="rId180" location="string" ref="D200"/>
-    <hyperlink r:id="rId181" location="boolean" ref="D201"/>
-    <hyperlink r:id="rId182" location="string" ref="D202"/>
-    <hyperlink r:id="rId183" location="codeableconcept" ref="D203"/>
-    <hyperlink r:id="rId184" ref="E203"/>
-    <hyperlink r:id="rId185" location="coding" ref="D204"/>
-    <hyperlink r:id="rId186" location="uri" ref="D205"/>
-    <hyperlink r:id="rId187" location="string" ref="D206"/>
-    <hyperlink r:id="rId188" location="code" ref="D207"/>
-    <hyperlink r:id="rId189" location="string" ref="D208"/>
-    <hyperlink r:id="rId190" location="boolean" ref="D209"/>
-    <hyperlink r:id="rId191" location="string" ref="D210"/>
-    <hyperlink r:id="rId192" location="codeableconcept" ref="D211"/>
-    <hyperlink r:id="rId193" ref="E211"/>
-    <hyperlink r:id="rId194" location="coding" ref="D212"/>
-    <hyperlink r:id="rId195" location="uri" ref="D213"/>
-    <hyperlink r:id="rId196" location="string" ref="D214"/>
-    <hyperlink r:id="rId197" location="code" ref="D215"/>
-    <hyperlink r:id="rId198" location="string" ref="D216"/>
-    <hyperlink r:id="rId199" location="boolean" ref="D217"/>
-    <hyperlink r:id="rId200" location="string" ref="D218"/>
-    <hyperlink r:id="rId201" location="codeableconcept" ref="D219"/>
-    <hyperlink r:id="rId202" ref="E219"/>
-    <hyperlink r:id="rId203" location="coding" ref="D220"/>
-    <hyperlink r:id="rId204" location="uri" ref="D221"/>
-    <hyperlink r:id="rId205" location="string" ref="D222"/>
-    <hyperlink r:id="rId206" location="code" ref="D223"/>
-    <hyperlink r:id="rId207" location="string" ref="D224"/>
-    <hyperlink r:id="rId208" location="boolean" ref="D225"/>
-    <hyperlink r:id="rId209" location="string" ref="D226"/>
-    <hyperlink r:id="rId210" location="string" ref="D229"/>
-    <hyperlink r:id="rId211" location="identifier" ref="D230"/>
-    <hyperlink r:id="rId212" location="string" ref="D231"/>
-    <hyperlink r:id="rId213" location="codeableconcept" ref="D232"/>
-    <hyperlink r:id="rId214" ref="E232"/>
-    <hyperlink r:id="rId215" location="coding" ref="D233"/>
-    <hyperlink r:id="rId216" location="uri" ref="D234"/>
-    <hyperlink r:id="rId217" location="string" ref="D235"/>
-    <hyperlink r:id="rId218" location="code" ref="D236"/>
-    <hyperlink r:id="rId219" location="string" ref="D237"/>
-    <hyperlink r:id="rId220" location="boolean" ref="D238"/>
-    <hyperlink r:id="rId221" location="string" ref="D239"/>
-    <hyperlink r:id="rId222" ref="D240"/>
-    <hyperlink r:id="rId223" location="Extension" ref="D241"/>
-    <hyperlink r:id="rId224" location="string" ref="D244"/>
-    <hyperlink r:id="rId225" location="identifier" ref="D245"/>
-    <hyperlink r:id="rId226" location="string" ref="D246"/>
-    <hyperlink r:id="rId227" location="code" ref="D247"/>
-    <hyperlink r:id="rId228" location="period" ref="D248"/>
-    <hyperlink r:id="rId229" location="datetime" ref="D249"/>
-    <hyperlink r:id="rId230" location="datetime" ref="D250"/>
-    <hyperlink r:id="rId231" location="string" ref="D253"/>
-    <hyperlink r:id="rId232" location="identifier" ref="D254"/>
-    <hyperlink r:id="rId233" location="string" ref="D255"/>
-    <hyperlink r:id="rId234" location="string" ref="D258"/>
-    <hyperlink r:id="rId235" location="identifier" ref="D259"/>
+    <hyperlink r:id="rId6" location="Narrative" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" location="Extension" ref="D12"/>
+    <hyperlink r:id="rId9" location="identifier" ref="D13"/>
+    <hyperlink r:id="rId10" location="code" ref="D14"/>
+    <hyperlink r:id="rId11" location="codeableconcept" ref="D15"/>
+    <hyperlink r:id="rId12" location="coding" ref="D16"/>
+    <hyperlink r:id="rId13" location="uri" ref="D17"/>
+    <hyperlink r:id="rId14" location="string" ref="D18"/>
+    <hyperlink r:id="rId15" location="code" ref="D19"/>
+    <hyperlink r:id="rId16" location="string" ref="D20"/>
+    <hyperlink r:id="rId17" location="boolean" ref="D21"/>
+    <hyperlink r:id="rId18" location="string" ref="D22"/>
+    <hyperlink r:id="rId19" location="uri" ref="D23"/>
+    <hyperlink r:id="rId20" location="string" ref="D24"/>
+    <hyperlink r:id="rId21" location="period" ref="D25"/>
+    <hyperlink r:id="rId22" location="datetime" ref="D26"/>
+    <hyperlink r:id="rId23" location="datetime" ref="D27"/>
+    <hyperlink r:id="rId24" location="string" ref="D30"/>
+    <hyperlink r:id="rId25" location="identifier" ref="D31"/>
+    <hyperlink r:id="rId26" location="string" ref="D32"/>
+    <hyperlink r:id="rId27" location="code" ref="D33"/>
+    <hyperlink r:id="rId28" ref="D34"/>
+    <hyperlink r:id="rId29" location="Extension" ref="D35"/>
+    <hyperlink r:id="rId30" location="code" ref="D36"/>
+    <hyperlink r:id="rId31" location="period" ref="D37"/>
+    <hyperlink r:id="rId32" location="datetime" ref="D38"/>
+    <hyperlink r:id="rId33" location="datetime" ref="D39"/>
+    <hyperlink r:id="rId34" location="coding" ref="D40"/>
+    <hyperlink r:id="rId35" location="uri" ref="D41"/>
+    <hyperlink r:id="rId36" location="string" ref="D42"/>
+    <hyperlink r:id="rId37" location="code" ref="D43"/>
+    <hyperlink r:id="rId38" location="string" ref="D44"/>
+    <hyperlink r:id="rId39" location="boolean" ref="D45"/>
+    <hyperlink r:id="rId40" ref="D46"/>
+    <hyperlink r:id="rId41" location="Extension" ref="D47"/>
+    <hyperlink r:id="rId42" location="coding" ref="D48"/>
+    <hyperlink r:id="rId43" location="uri" ref="D49"/>
+    <hyperlink r:id="rId44" location="string" ref="D50"/>
+    <hyperlink r:id="rId45" location="code" ref="D51"/>
+    <hyperlink r:id="rId46" location="string" ref="D52"/>
+    <hyperlink r:id="rId47" location="boolean" ref="D53"/>
+    <hyperlink r:id="rId48" location="period" ref="D54"/>
+    <hyperlink r:id="rId49" location="datetime" ref="D55"/>
+    <hyperlink r:id="rId50" location="datetime" ref="D56"/>
+    <hyperlink r:id="rId51" location="codeableconcept" ref="D57"/>
+    <hyperlink r:id="rId52" location="coding" ref="D58"/>
+    <hyperlink r:id="rId53" location="coding" ref="D59"/>
+    <hyperlink r:id="rId54" location="uri" ref="D61"/>
+    <hyperlink r:id="rId55" location="string" ref="D62"/>
+    <hyperlink r:id="rId56" location="code" ref="D63"/>
+    <hyperlink r:id="rId57" location="string" ref="D64"/>
+    <hyperlink r:id="rId58" location="boolean" ref="D65"/>
+    <hyperlink r:id="rId59" location="string" ref="D66"/>
+    <hyperlink r:id="rId60" location="codeableconcept" ref="D67"/>
+    <hyperlink r:id="rId61" location="coding" ref="D68"/>
+    <hyperlink r:id="rId62" location="uri" ref="D69"/>
+    <hyperlink r:id="rId63" location="string" ref="D70"/>
+    <hyperlink r:id="rId64" location="code" ref="D71"/>
+    <hyperlink r:id="rId65" location="string" ref="D72"/>
+    <hyperlink r:id="rId66" location="boolean" ref="D73"/>
+    <hyperlink r:id="rId67" location="string" ref="D74"/>
+    <hyperlink r:id="rId68" location="string" ref="D78"/>
+    <hyperlink r:id="rId69" location="identifier" ref="D79"/>
+    <hyperlink r:id="rId70" location="string" ref="D80"/>
+    <hyperlink r:id="rId71" location="string" ref="D83"/>
+    <hyperlink r:id="rId72" location="identifier" ref="D84"/>
+    <hyperlink r:id="rId73" location="string" ref="D85"/>
+    <hyperlink r:id="rId74" location="string" ref="D88"/>
+    <hyperlink r:id="rId75" location="identifier" ref="D89"/>
+    <hyperlink r:id="rId76" location="string" ref="D90"/>
+    <hyperlink r:id="rId77" ref="D91"/>
+    <hyperlink r:id="rId78" location="Extension" ref="D92"/>
+    <hyperlink r:id="rId79" location="codeableconcept" ref="D93"/>
+    <hyperlink r:id="rId80" location="coding" ref="D94"/>
+    <hyperlink r:id="rId81" location="uri" ref="D95"/>
+    <hyperlink r:id="rId82" location="string" ref="D96"/>
+    <hyperlink r:id="rId83" location="code" ref="D97"/>
+    <hyperlink r:id="rId84" location="string" ref="D98"/>
+    <hyperlink r:id="rId85" location="boolean" ref="D99"/>
+    <hyperlink r:id="rId86" location="string" ref="D100"/>
+    <hyperlink r:id="rId87" location="period" ref="D101"/>
+    <hyperlink r:id="rId88" location="datetime" ref="D102"/>
+    <hyperlink r:id="rId89" location="datetime" ref="D103"/>
+    <hyperlink r:id="rId90" location="string" ref="D107"/>
+    <hyperlink r:id="rId91" location="identifier" ref="D108"/>
+    <hyperlink r:id="rId92" location="string" ref="D109"/>
+    <hyperlink r:id="rId93" location="string" ref="D112"/>
+    <hyperlink r:id="rId94" location="identifier" ref="D113"/>
+    <hyperlink r:id="rId95" location="string" ref="D114"/>
+    <hyperlink r:id="rId96" location="period" ref="D115"/>
+    <hyperlink r:id="rId97" location="datetime" ref="D116"/>
+    <hyperlink r:id="rId98" location="datetime" ref="D117"/>
+    <hyperlink r:id="rId99" location="duration" ref="D118"/>
+    <hyperlink r:id="rId100" location="decimal" ref="D119"/>
+    <hyperlink r:id="rId101" location="code" ref="D120"/>
+    <hyperlink r:id="rId102" location="string" ref="D121"/>
+    <hyperlink r:id="rId103" location="uri" ref="D122"/>
+    <hyperlink r:id="rId104" location="code" ref="D123"/>
+    <hyperlink r:id="rId105" location="codeableconcept" ref="D124"/>
+    <hyperlink r:id="rId106" location="coding" ref="D125"/>
+    <hyperlink r:id="rId107" location="coding" ref="D126"/>
+    <hyperlink r:id="rId108" location="uri" ref="D128"/>
+    <hyperlink r:id="rId109" location="string" ref="D129"/>
+    <hyperlink r:id="rId110" location="code" ref="D130"/>
+    <hyperlink r:id="rId111" location="string" ref="D131"/>
+    <hyperlink r:id="rId112" location="boolean" ref="D132"/>
+    <hyperlink r:id="rId113" location="string" ref="D133"/>
+    <hyperlink r:id="rId114" ref="D134"/>
+    <hyperlink r:id="rId115" location="Extension" ref="D135"/>
+    <hyperlink r:id="rId116" location="string" ref="D139"/>
+    <hyperlink r:id="rId117" location="identifier" ref="D140"/>
+    <hyperlink r:id="rId118" location="string" ref="D141"/>
+    <hyperlink r:id="rId119" location="codeableconcept" ref="D142"/>
+    <hyperlink r:id="rId120" location="coding" ref="D143"/>
+    <hyperlink r:id="rId121" location="uri" ref="D144"/>
+    <hyperlink r:id="rId122" location="string" ref="D145"/>
+    <hyperlink r:id="rId123" location="code" ref="D146"/>
+    <hyperlink r:id="rId124" location="string" ref="D147"/>
+    <hyperlink r:id="rId125" location="boolean" ref="D148"/>
+    <hyperlink r:id="rId126" location="string" ref="D149"/>
+    <hyperlink r:id="rId127" location="positiveint" ref="D150"/>
+    <hyperlink r:id="rId128" location="string" ref="D153"/>
+    <hyperlink r:id="rId129" location="identifier" ref="D154"/>
+    <hyperlink r:id="rId130" location="string" ref="D155"/>
+    <hyperlink r:id="rId131" ref="D156"/>
+    <hyperlink r:id="rId132" location="identifier" ref="D160"/>
+    <hyperlink r:id="rId133" location="code" ref="D161"/>
+    <hyperlink r:id="rId134" location="codeableconcept" ref="D162"/>
+    <hyperlink r:id="rId135" location="coding" ref="D163"/>
+    <hyperlink r:id="rId136" location="uri" ref="D164"/>
+    <hyperlink r:id="rId137" location="string" ref="D165"/>
+    <hyperlink r:id="rId138" location="code" ref="D166"/>
+    <hyperlink r:id="rId139" location="string" ref="D167"/>
+    <hyperlink r:id="rId140" location="boolean" ref="D168"/>
+    <hyperlink r:id="rId141" location="string" ref="D169"/>
+    <hyperlink r:id="rId142" location="uri" ref="D170"/>
+    <hyperlink r:id="rId143" location="string" ref="D171"/>
+    <hyperlink r:id="rId144" location="period" ref="D172"/>
+    <hyperlink r:id="rId145" location="datetime" ref="D173"/>
+    <hyperlink r:id="rId146" location="datetime" ref="D174"/>
+    <hyperlink r:id="rId147" location="string" ref="D177"/>
+    <hyperlink r:id="rId148" location="identifier" ref="D178"/>
+    <hyperlink r:id="rId149" location="string" ref="D179"/>
+    <hyperlink r:id="rId150" location="string" ref="D182"/>
+    <hyperlink r:id="rId151" location="identifier" ref="D183"/>
+    <hyperlink r:id="rId152" location="string" ref="D184"/>
+    <hyperlink r:id="rId153" location="codeableconcept" ref="D185"/>
+    <hyperlink r:id="rId154" location="coding" ref="D186"/>
+    <hyperlink r:id="rId155" location="uri" ref="D187"/>
+    <hyperlink r:id="rId156" location="string" ref="D188"/>
+    <hyperlink r:id="rId157" location="code" ref="D189"/>
+    <hyperlink r:id="rId158" location="string" ref="D190"/>
+    <hyperlink r:id="rId159" location="boolean" ref="D191"/>
+    <hyperlink r:id="rId160" location="string" ref="D192"/>
+    <hyperlink r:id="rId161" location="codeableconcept" ref="D193"/>
+    <hyperlink r:id="rId162" location="coding" ref="D194"/>
+    <hyperlink r:id="rId163" location="coding" ref="D195"/>
+    <hyperlink r:id="rId164" location="uri" ref="D197"/>
+    <hyperlink r:id="rId165" location="string" ref="D198"/>
+    <hyperlink r:id="rId166" location="code" ref="D199"/>
+    <hyperlink r:id="rId167" location="string" ref="D200"/>
+    <hyperlink r:id="rId168" location="boolean" ref="D201"/>
+    <hyperlink r:id="rId169" location="string" ref="D202"/>
+    <hyperlink r:id="rId170" location="codeableconcept" ref="D203"/>
+    <hyperlink r:id="rId171" location="coding" ref="D204"/>
+    <hyperlink r:id="rId172" location="uri" ref="D205"/>
+    <hyperlink r:id="rId173" location="string" ref="D206"/>
+    <hyperlink r:id="rId174" location="code" ref="D207"/>
+    <hyperlink r:id="rId175" location="string" ref="D208"/>
+    <hyperlink r:id="rId176" location="boolean" ref="D209"/>
+    <hyperlink r:id="rId177" location="string" ref="D210"/>
+    <hyperlink r:id="rId178" location="codeableconcept" ref="D211"/>
+    <hyperlink r:id="rId179" location="coding" ref="D212"/>
+    <hyperlink r:id="rId180" location="uri" ref="D213"/>
+    <hyperlink r:id="rId181" location="string" ref="D214"/>
+    <hyperlink r:id="rId182" location="code" ref="D215"/>
+    <hyperlink r:id="rId183" location="string" ref="D216"/>
+    <hyperlink r:id="rId184" location="boolean" ref="D217"/>
+    <hyperlink r:id="rId185" location="string" ref="D218"/>
+    <hyperlink r:id="rId186" location="codeableconcept" ref="D219"/>
+    <hyperlink r:id="rId187" location="coding" ref="D220"/>
+    <hyperlink r:id="rId188" location="uri" ref="D221"/>
+    <hyperlink r:id="rId189" location="string" ref="D222"/>
+    <hyperlink r:id="rId190" location="code" ref="D223"/>
+    <hyperlink r:id="rId191" location="string" ref="D224"/>
+    <hyperlink r:id="rId192" location="boolean" ref="D225"/>
+    <hyperlink r:id="rId193" location="string" ref="D226"/>
+    <hyperlink r:id="rId194" location="string" ref="D229"/>
+    <hyperlink r:id="rId195" location="identifier" ref="D230"/>
+    <hyperlink r:id="rId196" location="string" ref="D231"/>
+    <hyperlink r:id="rId197" location="codeableconcept" ref="D232"/>
+    <hyperlink r:id="rId198" location="coding" ref="D233"/>
+    <hyperlink r:id="rId199" location="uri" ref="D234"/>
+    <hyperlink r:id="rId200" location="string" ref="D235"/>
+    <hyperlink r:id="rId201" location="code" ref="D236"/>
+    <hyperlink r:id="rId202" location="string" ref="D237"/>
+    <hyperlink r:id="rId203" location="boolean" ref="D238"/>
+    <hyperlink r:id="rId204" location="string" ref="D239"/>
+    <hyperlink r:id="rId205" ref="D240"/>
+    <hyperlink r:id="rId206" location="Extension" ref="D241"/>
+    <hyperlink r:id="rId207" location="string" ref="D244"/>
+    <hyperlink r:id="rId208" location="identifier" ref="D245"/>
+    <hyperlink r:id="rId209" location="string" ref="D246"/>
+    <hyperlink r:id="rId210" location="code" ref="D247"/>
+    <hyperlink r:id="rId211" location="period" ref="D248"/>
+    <hyperlink r:id="rId212" location="datetime" ref="D249"/>
+    <hyperlink r:id="rId213" location="datetime" ref="D250"/>
+    <hyperlink r:id="rId214" location="string" ref="D253"/>
+    <hyperlink r:id="rId215" location="identifier" ref="D254"/>
+    <hyperlink r:id="rId216" location="string" ref="D255"/>
+    <hyperlink r:id="rId217" location="string" ref="D258"/>
+    <hyperlink r:id="rId218" location="identifier" ref="D259"/>
+    <hyperlink r:id="rId219" location="string" ref="D260"/>
   </hyperlinks>
-  <drawing r:id="rId236"/>
+  <drawing r:id="rId220"/>
 </worksheet>
 </file>
 
